--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D88BA-6E68-4DE6-B59E-E721A2C78B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8061B9CC-3564-491D-8AC5-ED210C69744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="지형" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="291">
   <si>
     <t>IDEX</t>
   </si>
@@ -335,38 +336,6 @@
   </si>
   <si>
     <t>공격당한 적은 3초간 이동속도 15% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명까지 공격합니다</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1800,6 +1769,46 @@
   <si>
     <t>◀</t>
   </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리내 모든적들을 공격합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내 아군들을 공격속도 20% 증가 시킵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내 아군들을 공격력 20% 증가 시킵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2344,6 +2353,188 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D221ACC1-D5AC-42C4-85D7-11A82ED47DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17506950" y="171450"/>
+          <a:ext cx="2847975" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>110</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>240</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>레벨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2500</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2644,8 +2835,8 @@
   <dimension ref="A1:AD991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2687,16 +2878,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
@@ -2749,10 +2940,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="2"/>
@@ -2802,14 +2993,14 @@
         <v>52</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" ref="J3:J50" si="0">D3/E3</f>
+        <f t="shared" ref="J3:J66" si="0">D3/E3</f>
         <v>13.333333333333334</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="4"/>
@@ -2863,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="3"/>
@@ -2920,10 +3111,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="2"/>
@@ -2977,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>33</v>
@@ -3034,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>34</v>
@@ -3091,7 +3282,7 @@
         <v>22.5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>15</v>
@@ -3132,7 +3323,7 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="24">
         <v>30</v>
@@ -3148,10 +3339,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
@@ -3205,13 +3396,13 @@
         <v>13.636363636363635</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -3264,10 +3455,10 @@
         <v>12.5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="2"/>
@@ -3314,17 +3505,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>21.428571428571431</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
@@ -3371,17 +3562,17 @@
         <v>50</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="7"/>
@@ -3435,7 +3626,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>18</v>
@@ -3470,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15" s="23">
         <v>0.5</v>
@@ -3485,14 +3676,14 @@
         <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
@@ -3527,10 +3718,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="23">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E16" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="23">
         <v>15</v>
@@ -3549,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M16" s="27">
         <v>1.5</v>
@@ -3586,10 +3777,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="23">
         <v>11</v>
@@ -3600,15 +3791,15 @@
       <c r="H17" s="23">
         <v>50</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>59</v>
+      <c r="I17" s="40" t="s">
+        <v>286</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -3643,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="23">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E18" s="23">
         <v>1.25</v>
@@ -3662,10 +3853,10 @@
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>14</v>
@@ -3700,10 +3891,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="32">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <v>11</v>
@@ -3719,13 +3910,13 @@
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>31.428571428571431</v>
+        <v>45</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="7"/>
@@ -3772,17 +3963,17 @@
         <v>50</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M20" s="38">
         <v>1.5</v>
@@ -3816,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="23">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E21" s="23">
         <v>1</v>
@@ -3835,13 +4026,13 @@
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="2"/>
@@ -3873,7 +4064,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="23">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E22" s="23">
         <v>0.8</v>
@@ -3888,17 +4079,17 @@
         <v>50</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>127.5</v>
+        <v>93.75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="2"/>
@@ -3930,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="23">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E23" s="23">
         <v>1.2</v>
@@ -3945,17 +4136,17 @@
         <v>50</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J23" s="16">
         <f>(D23/E23) *2</f>
-        <v>100</v>
+        <v>108.33333333333334</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
@@ -3987,13 +4178,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="23">
         <v>0.1</v>
       </c>
       <c r="F24" s="23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="24">
         <v>30</v>
@@ -4002,17 +4193,17 @@
         <v>50</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
@@ -4044,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="32">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E25" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="32">
         <v>50</v>
@@ -4059,17 +4250,17 @@
         <v>50</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="7"/>
@@ -4101,7 +4292,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="23">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E26" s="23">
         <v>1.2</v>
@@ -4116,14 +4307,14 @@
         <v>50</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>191.66666666666669</v>
+        <v>216.66666666666669</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>17</v>
@@ -4158,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="23">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E27" s="23">
         <v>1.5</v>
@@ -4173,17 +4364,17 @@
         <v>50</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" s="16">
         <f>D27/E27*2</f>
-        <v>186.66666666666666</v>
+        <v>213.33333333333334</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="2"/>
@@ -4215,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="23">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E28" s="23">
         <v>3</v>
@@ -4230,14 +4421,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J28" s="16">
         <f>D28/E28*4</f>
-        <v>266.66666666666669</v>
+        <v>240</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>11</v>
@@ -4287,20 +4478,20 @@
         <v>50</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J29" s="16">
         <f>D29/E29 * 10</f>
         <v>125</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
@@ -4346,17 +4537,17 @@
         <v>50</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
         <v>214.28571428571431</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
@@ -4388,10 +4579,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="32">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E31" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F31" s="32">
         <v>11</v>
@@ -4403,17 +4594,17 @@
         <v>50</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="7"/>
@@ -4448,7 +4639,7 @@
         <v>400</v>
       </c>
       <c r="E32" s="23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F32" s="23">
         <v>11</v>
@@ -4460,14 +4651,14 @@
         <v>50</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>19</v>
@@ -4502,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="23">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E33" s="23">
         <v>1</v>
@@ -4517,17 +4708,17 @@
         <v>50</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
@@ -4559,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="23">
-        <v>300</v>
+        <v>777</v>
       </c>
       <c r="E34" s="23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="23">
         <v>10</v>
@@ -4578,13 +4769,13 @@
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="2"/>
@@ -4616,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="23">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E35" s="23">
         <v>1</v>
@@ -4631,14 +4822,14 @@
         <v>50</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>D35/E35 *3</f>
+        <v>465</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>39</v>
@@ -4673,7 +4864,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="23">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="E36" s="23">
         <v>2</v>
@@ -4688,17 +4879,17 @@
         <v>50</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
@@ -4730,7 +4921,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="32">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="E37" s="32">
         <v>2</v>
@@ -4745,14 +4936,14 @@
         <v>100</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J37" s="35">
         <f>D37/E37 * 3</f>
-        <v>300</v>
+        <v>499.5</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>40</v>
@@ -4787,7 +4978,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="23">
-        <v>400</v>
+        <v>555</v>
       </c>
       <c r="E38" s="23">
         <v>1</v>
@@ -4802,17 +4993,17 @@
         <v>50</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>555</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L38" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="5"/>
@@ -4844,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="23">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E39" s="23">
         <v>0.8</v>
@@ -4859,14 +5050,14 @@
         <v>50</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>22</v>
@@ -4901,7 +5092,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="23">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="E40" s="23">
         <v>0.7</v>
@@ -4916,14 +5107,14 @@
         <v>50</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>714.28571428571433</v>
+        <v>1110</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>41</v>
@@ -4958,10 +5149,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="23">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F41" s="23">
         <v>12</v>
@@ -4973,14 +5164,14 @@
         <v>50</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>533.33333333333337</v>
+        <v>500</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>21</v>
@@ -5015,10 +5206,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="23">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="E42" s="23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F42" s="23">
         <v>11</v>
@@ -5030,14 +5221,14 @@
         <v>50</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L42" s="39" t="s">
         <v>20</v>
@@ -5072,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="32">
-        <v>1200</v>
+        <v>1555</v>
       </c>
       <c r="E43" s="32">
         <v>1.5</v>
@@ -5087,17 +5278,17 @@
         <v>50</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1036.6666666666667</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="7"/>
@@ -5129,7 +5320,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="23">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="E44" s="23">
         <v>2</v>
@@ -5144,14 +5335,14 @@
         <v>50</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -5186,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="23">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="E45" s="23">
         <v>0.5</v>
@@ -5201,14 +5392,14 @@
         <v>50</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>2222</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>27</v>
@@ -5243,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="23">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="E46" s="23">
         <v>0.5</v>
@@ -5258,14 +5449,14 @@
         <v>50</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1998</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>42</v>
@@ -5300,7 +5491,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="23">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="E47" s="23">
         <v>0.5</v>
@@ -5315,17 +5506,17 @@
         <v>50</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>888</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="2"/>
@@ -5357,7 +5548,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="23">
-        <v>1050</v>
+        <v>1666</v>
       </c>
       <c r="E48" s="23">
         <v>0.8</v>
@@ -5372,14 +5563,14 @@
         <v>50</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
-        <v>1312.5</v>
+        <v>2082.5</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L48" s="36" t="s">
         <v>23</v>
@@ -5414,10 +5605,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="32">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="32">
         <v>50</v>
@@ -5429,17 +5620,17 @@
         <v>50</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
@@ -5471,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="23">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E50" s="23">
         <v>1.4</v>
@@ -5486,17 +5677,17 @@
         <v>50</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" si="0"/>
-        <v>164.28571428571431</v>
+        <v>178.57142857142858</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="5"/>
@@ -5521,17 +5712,40 @@
       <c r="A51" s="22">
         <v>49</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="B51" s="23">
+        <v>6</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="23">
+        <v>44</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F51" s="23">
+        <v>9</v>
+      </c>
+      <c r="G51" s="23">
+        <v>30</v>
+      </c>
+      <c r="H51" s="23">
+        <v>50</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>288</v>
+      </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5552,17 +5766,40 @@
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="A52" s="22">
+        <v>50</v>
+      </c>
+      <c r="B52" s="23">
+        <v>3</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="23">
+        <v>44</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23">
+        <v>10</v>
+      </c>
+      <c r="G52" s="23">
+        <v>30</v>
+      </c>
+      <c r="H52" s="23">
+        <v>50</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>287</v>
+      </c>
       <c r="L52" s="23"/>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
@@ -5584,18 +5821,41 @@
       <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="A53" s="22">
+        <v>51</v>
+      </c>
+      <c r="B53" s="23">
+        <v>4</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="23">
+        <v>99</v>
+      </c>
+      <c r="E53" s="23">
+        <v>1</v>
+      </c>
+      <c r="F53" s="23">
+        <v>10</v>
+      </c>
+      <c r="G53" s="23">
+        <v>30</v>
+      </c>
+      <c r="H53" s="23">
+        <v>50</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="L53" s="23"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -5615,18 +5875,24 @@
       <c r="AD53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+      <c r="A54" s="22">
+        <v>52</v>
+      </c>
+      <c r="B54" s="23">
+        <v>3</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -5646,18 +5912,24 @@
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+      <c r="A55" s="22">
+        <v>53</v>
+      </c>
+      <c r="B55" s="23">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -5677,18 +5949,24 @@
       <c r="AD55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="A56" s="22">
+        <v>54</v>
+      </c>
+      <c r="B56" s="23">
+        <v>3</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -5719,7 +5997,7 @@
       <c r="I57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="14"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="14"/>
       <c r="L57" s="12" t="s">
         <v>25</v>
@@ -5752,7 +6030,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="12"/>
       <c r="L58" s="14"/>
       <c r="N58" s="1"/>
@@ -5783,7 +6061,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="12"/>
       <c r="L59" s="15" t="s">
         <v>28</v>
@@ -5818,7 +6096,7 @@
       <c r="I60" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="15"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15" t="s">
         <v>29</v>
@@ -5851,7 +6129,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12" t="s">
         <v>31</v>
@@ -5886,7 +6164,7 @@
       <c r="I62" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="14"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11" t="s">
         <v>13</v>
@@ -5919,7 +6197,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="12"/>
       <c r="L63" s="11" t="s">
         <v>36</v>
@@ -5952,7 +6230,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="N64" s="1"/>
@@ -5983,7 +6261,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="N65" s="1"/>
@@ -6014,7 +6292,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="N66" s="1"/>
@@ -6045,7 +6323,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="N67" s="1"/>
@@ -34716,6 +34994,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34748,22 +35027,22 @@
         <v>45</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>82</v>
-      </c>
       <c r="I1" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -34792,7 +35071,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
@@ -34806,22 +35085,22 @@
         <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="17">
         <v>0</v>
@@ -34838,22 +35117,22 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -34870,22 +35149,22 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -34902,22 +35181,22 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>99</v>
       </c>
-      <c r="H6" t="s">
-        <v>100</v>
-      </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -34934,22 +35213,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>105</v>
       </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -34966,25 +35245,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
         <v>108</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>111</v>
       </c>
-      <c r="H8" t="s">
-        <v>112</v>
-      </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -34998,22 +35277,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
         <v>164</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>165</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>167</v>
       </c>
-      <c r="H9" t="s">
-        <v>168</v>
-      </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -35030,22 +35309,22 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
         <v>115</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>118</v>
       </c>
-      <c r="H10" t="s">
-        <v>119</v>
-      </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -35062,19 +35341,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>121</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>123</v>
-      </c>
-      <c r="H11" t="s">
-        <v>124</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -35094,22 +35373,22 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>127</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>129</v>
       </c>
-      <c r="H12" t="s">
-        <v>130</v>
-      </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -35126,22 +35405,22 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
         <v>132</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>135</v>
       </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -35158,22 +35437,22 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
         <v>138</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>140</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>141</v>
       </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -35190,22 +35469,22 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
         <v>144</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>145</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>146</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>147</v>
       </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -35222,22 +35501,22 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
         <v>169</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
         <v>170</v>
       </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>171</v>
       </c>
-      <c r="H16" t="s">
-        <v>172</v>
-      </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -35254,25 +35533,25 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
         <v>152</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>153</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>154</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>155</v>
       </c>
-      <c r="H17" t="s">
-        <v>156</v>
-      </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
@@ -35286,22 +35565,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" t="s">
         <v>198</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" t="s">
-        <v>199</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -35318,25 +35597,25 @@
         <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -35350,22 +35629,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
         <v>210</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>211</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>212</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>213</v>
       </c>
-      <c r="H20" t="s">
-        <v>214</v>
-      </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -35382,22 +35661,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
         <v>178</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>179</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>180</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>181</v>
       </c>
-      <c r="H21" t="s">
-        <v>182</v>
-      </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -35414,22 +35693,22 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
         <v>160</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
         <v>162</v>
       </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -35458,25 +35737,25 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>232</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -37347,13 +37626,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>263</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -37461,16 +37740,16 @@
         <v>43</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -37681,28 +37960,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>270</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1">
@@ -37713,7 +37992,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="54">
         <v>1</v>
@@ -37738,7 +38017,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="54">
         <v>1.1000000000000001</v>
@@ -37763,7 +38042,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="54">
         <v>1.2</v>
@@ -37788,7 +38067,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="54">
         <v>1.3</v>
@@ -37813,7 +38092,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="54">
         <v>1.4</v>
@@ -37838,7 +38117,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" s="54">
         <v>1.5</v>
@@ -37863,7 +38142,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" s="54">
         <v>1.6</v>
@@ -37898,49 +38177,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -37956,27 +38235,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -37984,7 +38263,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -38000,41 +38279,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -38050,41 +38329,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -38095,16 +38374,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -38120,7 +38399,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -38136,45 +38415,45 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>280</v>
-      </c>
       <c r="C6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -38190,45 +38469,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>280</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -38244,7 +38523,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -38260,7 +38539,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -38271,50 +38550,50 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -38325,50 +38604,50 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -38384,7 +38663,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -38392,13 +38671,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -38406,7 +38685,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -38422,49 +38701,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -66145,5 +66424,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8061B9CC-3564-491D-8AC5-ED210C69744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F9391D-2902-475A-ACE2-90A9701D3272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="지형" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="300">
   <si>
     <t>IDEX</t>
   </si>
@@ -319,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격당한 적은 3초간 이동속도 15% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레이저로 지속적으로 공격합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +327,6 @@
   </si>
   <si>
     <t>미사일이 관통을 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격당한 적은 3초간 이동속도 15% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주변 적들의 이동속도 20% 감소 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>20%</t>
     </r>
@@ -736,10 +723,6 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 적들의 이동속도 25% 감소 합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1055,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타켓된 한명 이동속도감소 30% 3초간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어 무시 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,22 +1107,6 @@
   </si>
   <si>
     <t>첫대상 스턴 1.5초 추가 데미지 공격력 +50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타켓된 한명 이동속도감소 30% 1초간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타켓된 한명 이동속도감소 30% 2초간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타켓된 한명 이동속도감소 30% 4초간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타켓된 한명 이동속도감소 30% 5초간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1802,11 +1765,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위내 아군들을 공격속도 20% 증가 시킵니다</t>
+    <t>타켓된 한명 이동속도감소 10% 1초간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위내 아군들을 공격력 20% 증가 시킵니다</t>
+    <t>타켓된 한명 이동속도감소 10% 2초간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타켓된 한명 이동속도감소 10% 3초간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타켓된 한명 이동속도감소 10% 4초간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타켓된 한명 이동속도감소 10% 5초간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격당한 적은 3초간 이동속도 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식칼 여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티찬 꼬마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕큰벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 한마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내 아군들을 공격속도 10% 증가 시킵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내 아군들을 공격력 10% 증가 시킵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌 74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모두</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2365,8 +2433,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2382,7 +2450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17506950" y="171450"/>
-          <a:ext cx="2847975" cy="2000250"/>
+          <a:ext cx="2847975" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,7 +2577,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>1100</a:t>
+            <a:t>1000</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2524,7 +2592,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2500</a:t>
+            <a:t>2000</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2835,8 +2903,8 @@
   <dimension ref="A1:AD991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2878,16 +2946,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
@@ -2940,10 +3008,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="2"/>
@@ -2975,10 +3043,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="23">
         <v>11</v>
@@ -2993,14 +3061,14 @@
         <v>52</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" ref="J3:J66" si="0">D3/E3</f>
+        <f t="shared" ref="J3:J56" si="0">D3/E3</f>
         <v>13.333333333333334</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="4"/>
@@ -3054,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="3"/>
@@ -3111,10 +3179,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="2"/>
@@ -3168,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>33</v>
@@ -3225,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>34</v>
@@ -3275,14 +3343,14 @@
         <v>50</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>15</v>
@@ -3332,17 +3400,17 @@
         <v>50</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
@@ -3389,20 +3457,20 @@
         <v>50</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
         <v>13.636363636363635</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -3455,10 +3523,10 @@
         <v>12.5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="2"/>
@@ -3505,17 +3573,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>21.428571428571431</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
@@ -3562,17 +3630,17 @@
         <v>50</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="7"/>
@@ -3626,7 +3694,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>18</v>
@@ -3676,14 +3744,14 @@
         <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
@@ -3733,17 +3801,17 @@
         <v>50</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M16" s="27">
         <v>1.5</v>
@@ -3792,14 +3860,14 @@
         <v>50</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -3849,14 +3917,14 @@
         <v>50</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>14</v>
@@ -3906,17 +3974,17 @@
         <v>50</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="7"/>
@@ -3963,17 +4031,17 @@
         <v>50</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M20" s="38">
         <v>1.5</v>
@@ -4029,10 +4097,10 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="2"/>
@@ -4079,17 +4147,17 @@
         <v>50</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="2"/>
@@ -4136,17 +4204,17 @@
         <v>50</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J23" s="16">
         <f>(D23/E23) *2</f>
         <v>108.33333333333334</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
@@ -4193,17 +4261,17 @@
         <v>50</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
@@ -4250,17 +4318,17 @@
         <v>50</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="7"/>
@@ -4307,14 +4375,14 @@
         <v>50</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
         <v>216.66666666666669</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>17</v>
@@ -4364,17 +4432,17 @@
         <v>50</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J27" s="16">
         <f>D27/E27*2</f>
         <v>213.33333333333334</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="2"/>
@@ -4421,14 +4489,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J28" s="16">
         <f>D28/E28*4</f>
         <v>240</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>11</v>
@@ -4478,20 +4546,20 @@
         <v>50</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J29" s="16">
         <f>D29/E29 * 10</f>
         <v>125</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
@@ -4537,17 +4605,17 @@
         <v>50</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
         <v>214.28571428571431</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
@@ -4594,17 +4662,17 @@
         <v>50</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="7"/>
@@ -4651,14 +4719,14 @@
         <v>50</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>19</v>
@@ -4708,17 +4776,17 @@
         <v>50</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
@@ -4765,17 +4833,17 @@
         <v>50</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="2"/>
@@ -4822,14 +4890,14 @@
         <v>50</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J35" s="16">
         <f>D35/E35 *3</f>
         <v>465</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>39</v>
@@ -4879,17 +4947,17 @@
         <v>50</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
@@ -4936,14 +5004,14 @@
         <v>100</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J37" s="35">
         <f>D37/E37 * 3</f>
         <v>499.5</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>40</v>
@@ -4993,17 +5061,17 @@
         <v>50</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L38" s="40" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="5"/>
@@ -5050,14 +5118,14 @@
         <v>50</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>22</v>
@@ -5107,14 +5175,14 @@
         <v>50</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>41</v>
@@ -5164,14 +5232,14 @@
         <v>50</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>21</v>
@@ -5221,14 +5289,14 @@
         <v>50</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L42" s="39" t="s">
         <v>20</v>
@@ -5278,17 +5346,17 @@
         <v>50</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="0"/>
         <v>1036.6666666666667</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="7"/>
@@ -5320,7 +5388,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="23">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="23">
         <v>2</v>
@@ -5335,14 +5403,14 @@
         <v>50</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -5377,7 +5445,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="23">
-        <v>1111</v>
+        <v>999</v>
       </c>
       <c r="E45" s="23">
         <v>0.5</v>
@@ -5392,14 +5460,14 @@
         <v>50</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>2222</v>
+        <v>1998</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>27</v>
@@ -5434,7 +5502,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="23">
-        <v>999</v>
+        <v>888</v>
       </c>
       <c r="E46" s="23">
         <v>0.5</v>
@@ -5449,14 +5517,14 @@
         <v>50</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>1998</v>
+        <v>1776</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>42</v>
@@ -5491,7 +5559,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="23">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="E47" s="23">
         <v>0.5</v>
@@ -5506,17 +5574,17 @@
         <v>50</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>666</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="2"/>
@@ -5563,14 +5631,14 @@
         <v>50</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
         <v>2082.5</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L48" s="36" t="s">
         <v>23</v>
@@ -5620,17 +5688,17 @@
         <v>50</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
@@ -5677,17 +5745,17 @@
         <v>50</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" si="0"/>
         <v>178.57142857142858</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="5"/>
@@ -5716,7 +5784,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D51" s="23">
         <v>44</v>
@@ -5734,17 +5802,17 @@
         <v>50</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" s="23">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L51" s="44" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
@@ -5770,13 +5838,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="23">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E52" s="23">
         <v>1</v>
@@ -5791,16 +5859,18 @@
         <v>50</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="L52" s="23"/>
+        <v>278</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>295</v>
+      </c>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5825,13 +5895,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="23">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="E53" s="23">
         <v>1</v>
@@ -5846,16 +5916,18 @@
         <v>50</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="L53" s="23"/>
+        <v>278</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>296</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -5884,15 +5956,34 @@
       <c r="C54" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
+      <c r="D54" s="23">
+        <v>22</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="23">
+        <v>10</v>
+      </c>
+      <c r="G54" s="23">
+        <v>30</v>
+      </c>
+      <c r="H54" s="23">
+        <v>50</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -5916,20 +6007,39 @@
         <v>53</v>
       </c>
       <c r="B55" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
+      <c r="D55" s="23">
+        <v>500</v>
+      </c>
+      <c r="E55" s="23">
+        <v>2</v>
+      </c>
+      <c r="F55" s="23">
+        <v>9</v>
+      </c>
+      <c r="G55" s="23">
+        <v>30</v>
+      </c>
+      <c r="H55" s="23">
+        <v>50</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="23">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -5958,15 +6068,34 @@
       <c r="C56" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
+      <c r="D56" s="23">
+        <v>150</v>
+      </c>
+      <c r="E56" s="23">
+        <v>3</v>
+      </c>
+      <c r="F56" s="23">
+        <v>8</v>
+      </c>
+      <c r="G56" s="23">
+        <v>30</v>
+      </c>
+      <c r="H56" s="23">
+        <v>50</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -5986,21 +6115,42 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="23"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="12" t="s">
-        <v>25</v>
+      <c r="A57" s="22">
+        <v>55</v>
+      </c>
+      <c r="B57" s="23">
+        <v>8</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="23">
+        <v>2</v>
+      </c>
+      <c r="F57" s="23">
+        <v>9</v>
+      </c>
+      <c r="G57" s="23">
+        <v>30</v>
+      </c>
+      <c r="H57" s="23">
+        <v>50</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" ref="J57:J68" si="1">D57/E57</f>
+        <v>1000</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6021,18 +6171,43 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="14"/>
+      <c r="A58" s="22">
+        <v>56</v>
+      </c>
+      <c r="B58" s="23">
+        <v>8</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1111</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F58" s="23">
+        <v>11</v>
+      </c>
+      <c r="G58" s="23">
+        <v>30</v>
+      </c>
+      <c r="H58" s="23">
+        <v>50</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="1"/>
+        <v>1587.1428571428573</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>292</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -6052,19 +6227,42 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="15" t="s">
-        <v>28</v>
+      <c r="A59" s="22">
+        <v>57</v>
+      </c>
+      <c r="B59" s="23">
+        <v>7</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="23">
+        <v>333</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="23">
+        <v>9</v>
+      </c>
+      <c r="G59" s="23">
+        <v>30</v>
+      </c>
+      <c r="H59" s="23">
+        <v>50</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J59" s="23">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6085,21 +6283,31 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="15" t="s">
+      <c r="A60" s="22">
+        <v>58</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="23">
+        <v>2</v>
+      </c>
+      <c r="F60" s="23">
+        <v>9</v>
+      </c>
+      <c r="G60" s="23">
         <v>30</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15" t="s">
-        <v>29</v>
+      <c r="H60" s="23">
+        <v>50</v>
+      </c>
+      <c r="J60" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6120,19 +6328,31 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12" t="s">
-        <v>31</v>
+      <c r="A61" s="22">
+        <v>59</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="23">
+        <v>2</v>
+      </c>
+      <c r="F61" s="23">
+        <v>9</v>
+      </c>
+      <c r="G61" s="23">
+        <v>30</v>
+      </c>
+      <c r="H61" s="23">
+        <v>50</v>
+      </c>
+      <c r="J61" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -6153,21 +6373,31 @@
       <c r="AD61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="11" t="s">
-        <v>13</v>
+      <c r="A62" s="22">
+        <v>60</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="23">
+        <v>2</v>
+      </c>
+      <c r="F62" s="23">
+        <v>9</v>
+      </c>
+      <c r="G62" s="23">
+        <v>30</v>
+      </c>
+      <c r="H62" s="23">
+        <v>50</v>
+      </c>
+      <c r="J62" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -6188,19 +6418,31 @@
       <c r="AD62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="11" t="s">
-        <v>36</v>
+      <c r="A63" s="22">
+        <v>61</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="23">
+        <v>2</v>
+      </c>
+      <c r="F63" s="23">
+        <v>9</v>
+      </c>
+      <c r="G63" s="23">
+        <v>30</v>
+      </c>
+      <c r="H63" s="23">
+        <v>50</v>
+      </c>
+      <c r="J63" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -6221,18 +6463,32 @@
       <c r="AD63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
+      <c r="A64" s="22">
+        <v>62</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="23">
+        <v>2</v>
+      </c>
+      <c r="F64" s="23">
+        <v>9</v>
+      </c>
+      <c r="G64" s="23">
+        <v>30</v>
+      </c>
+      <c r="H64" s="23">
+        <v>50</v>
+      </c>
+      <c r="J64" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -6252,18 +6508,32 @@
       <c r="AD64" s="1"/>
     </row>
     <row r="65" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
+      <c r="A65" s="22">
+        <v>63</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="23">
+        <v>2</v>
+      </c>
+      <c r="F65" s="23">
+        <v>9</v>
+      </c>
+      <c r="G65" s="23">
+        <v>30</v>
+      </c>
+      <c r="H65" s="23">
+        <v>50</v>
+      </c>
+      <c r="J65" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -6283,18 +6553,32 @@
       <c r="AD65" s="1"/>
     </row>
     <row r="66" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
+      <c r="A66" s="22">
+        <v>64</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="23">
+        <v>2</v>
+      </c>
+      <c r="F66" s="23">
+        <v>9</v>
+      </c>
+      <c r="G66" s="23">
+        <v>30</v>
+      </c>
+      <c r="H66" s="23">
+        <v>50</v>
+      </c>
+      <c r="J66" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -6314,18 +6598,32 @@
       <c r="AD66" s="1"/>
     </row>
     <row r="67" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
+      <c r="A67" s="22">
+        <v>65</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="23">
+        <v>2</v>
+      </c>
+      <c r="F67" s="23">
+        <v>9</v>
+      </c>
+      <c r="G67" s="23">
+        <v>30</v>
+      </c>
+      <c r="H67" s="23">
+        <v>50</v>
+      </c>
+      <c r="J67" s="23">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -6353,10 +6651,7 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="J68" s="23"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -6384,10 +6679,14 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
+      <c r="I69" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="23"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -6416,11 +6715,9 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="12"/>
-      <c r="L70" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="L70" s="14"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -6449,9 +6746,11 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
+      <c r="L71" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -6479,10 +6778,14 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
+      <c r="I72" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="23"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -6511,9 +6814,11 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
+      <c r="L73" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -6541,10 +6846,14 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
+      <c r="I74" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="23"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -6573,9 +6882,11 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
+      <c r="L75" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -6604,7 +6915,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
+      <c r="J76" s="23"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="N76" s="1"/>
@@ -6635,7 +6946,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="N77" s="1"/>
@@ -6666,7 +6977,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="J78" s="23"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="N78" s="1"/>
@@ -6697,7 +7008,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="N79" s="1"/>
@@ -6792,7 +7103,9 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
+      <c r="L82" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -35004,7 +35317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35027,22 +35340,22 @@
         <v>45</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" s="60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -35071,7 +35384,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
@@ -35085,22 +35398,22 @@
         <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J3" s="17">
         <v>0</v>
@@ -35117,22 +35430,22 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -35149,22 +35462,22 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -35181,22 +35494,22 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -35213,22 +35526,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -35245,25 +35558,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
         <v>107</v>
       </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>111</v>
-      </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -35277,22 +35590,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -35309,22 +35622,22 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
         <v>114</v>
       </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -35341,19 +35654,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
         <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -35373,22 +35686,22 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
         <v>125</v>
       </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -35405,22 +35718,22 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -35437,22 +35750,22 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" t="s">
-        <v>141</v>
-      </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -35469,22 +35782,22 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
         <v>143</v>
       </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>147</v>
-      </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -35501,22 +35814,22 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -35533,25 +35846,25 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
@@ -35565,22 +35878,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -35597,25 +35910,25 @@
         <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -35629,22 +35942,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -35661,22 +35974,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -35693,22 +36006,22 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -35726,8 +36039,8 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35737,25 +36050,25 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -35801,7 +36114,7 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -35827,7 +36140,7 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -35853,7 +36166,7 @@
         <v>130</v>
       </c>
       <c r="F5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -35879,7 +36192,7 @@
         <v>170</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -35905,13 +36218,13 @@
         <v>1200</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -35928,13 +36241,13 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -35954,13 +36267,13 @@
         <v>46</v>
       </c>
       <c r="E9">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -35980,13 +36293,13 @@
         <v>46</v>
       </c>
       <c r="E10">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -36006,13 +36319,13 @@
         <v>46</v>
       </c>
       <c r="E11">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -36032,16 +36345,16 @@
         <v>46</v>
       </c>
       <c r="E12">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -36058,13 +36371,13 @@
         <v>46</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -36084,13 +36397,13 @@
         <v>46</v>
       </c>
       <c r="E14">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -36110,13 +36423,13 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -36136,13 +36449,13 @@
         <v>46</v>
       </c>
       <c r="E16">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -36162,16 +36475,16 @@
         <v>46</v>
       </c>
       <c r="E17">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -36191,10 +36504,10 @@
         <v>800</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -36217,10 +36530,10 @@
         <v>900</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -36243,10 +36556,10 @@
         <v>1000</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -36269,10 +36582,10 @@
         <v>1100</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -36295,13 +36608,13 @@
         <v>8000</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -36321,10 +36634,10 @@
         <v>1500</v>
       </c>
       <c r="F23">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -36347,10 +36660,10 @@
         <v>1700</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -36373,10 +36686,10 @@
         <v>1900</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -36399,10 +36712,10 @@
         <v>2100</v>
       </c>
       <c r="F26">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -36425,13 +36738,13 @@
         <v>16000</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -36451,10 +36764,10 @@
         <v>2400</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -36477,10 +36790,10 @@
         <v>2500</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -36503,10 +36816,10 @@
         <v>2800</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -36529,10 +36842,10 @@
         <v>2900</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -36555,13 +36868,13 @@
         <v>25000</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -36581,10 +36894,10 @@
         <v>3200</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -36607,10 +36920,10 @@
         <v>3400</v>
       </c>
       <c r="F34">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -36633,10 +36946,10 @@
         <v>3600</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -36659,10 +36972,10 @@
         <v>3800</v>
       </c>
       <c r="F36">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -36685,13 +36998,13 @@
         <v>35000</v>
       </c>
       <c r="F37">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -36711,10 +37024,10 @@
         <v>4000</v>
       </c>
       <c r="F38">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -36737,10 +37050,10 @@
         <v>4200</v>
       </c>
       <c r="F39">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -36763,10 +37076,10 @@
         <v>4500</v>
       </c>
       <c r="F40">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -36789,10 +37102,10 @@
         <v>4800</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -36815,13 +37128,13 @@
         <v>45000</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -36841,10 +37154,10 @@
         <v>5000</v>
       </c>
       <c r="F43">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -36867,10 +37180,10 @@
         <v>5200</v>
       </c>
       <c r="F44">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -36893,10 +37206,10 @@
         <v>5400</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -36919,10 +37232,10 @@
         <v>5600</v>
       </c>
       <c r="F46">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -36945,13 +37258,13 @@
         <v>60000</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G47">
+        <v>19</v>
+      </c>
+      <c r="H47">
         <v>10</v>
-      </c>
-      <c r="H47">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -36971,10 +37284,10 @@
         <v>6200</v>
       </c>
       <c r="F48">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -36997,10 +37310,10 @@
         <v>6500</v>
       </c>
       <c r="F49">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -37023,10 +37336,10 @@
         <v>6800</v>
       </c>
       <c r="F50">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -37049,10 +37362,10 @@
         <v>7200</v>
       </c>
       <c r="F51">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -37075,13 +37388,13 @@
         <v>75000</v>
       </c>
       <c r="F52">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -37101,10 +37414,10 @@
         <v>8000</v>
       </c>
       <c r="F53">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -37127,10 +37440,10 @@
         <v>8200</v>
       </c>
       <c r="F54">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -37153,10 +37466,10 @@
         <v>8400</v>
       </c>
       <c r="F55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -37179,10 +37492,10 @@
         <v>8600</v>
       </c>
       <c r="F56">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -37205,13 +37518,13 @@
         <v>85000</v>
       </c>
       <c r="F57">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -37231,10 +37544,10 @@
         <v>8800</v>
       </c>
       <c r="F58">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -37257,10 +37570,10 @@
         <v>9000</v>
       </c>
       <c r="F59">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -37283,10 +37596,10 @@
         <v>9200</v>
       </c>
       <c r="F60">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -37309,10 +37622,10 @@
         <v>9400</v>
       </c>
       <c r="F61">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -37335,13 +37648,13 @@
         <v>100000</v>
       </c>
       <c r="F62">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G62">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -37361,10 +37674,10 @@
         <v>10000</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -37387,10 +37700,10 @@
         <v>11000</v>
       </c>
       <c r="F64">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -37413,10 +37726,10 @@
         <v>12000</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -37439,10 +37752,10 @@
         <v>13000</v>
       </c>
       <c r="F66">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -37465,13 +37778,13 @@
         <v>120000</v>
       </c>
       <c r="F67">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G67">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H67">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -37491,10 +37804,10 @@
         <v>14000</v>
       </c>
       <c r="F68">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -37517,10 +37830,10 @@
         <v>15000</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -37543,10 +37856,10 @@
         <v>16000</v>
       </c>
       <c r="F70">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -37569,10 +37882,10 @@
         <v>17000</v>
       </c>
       <c r="F71">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -37595,13 +37908,13 @@
         <v>150000</v>
       </c>
       <c r="F72">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -37626,13 +37939,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -37740,16 +38053,16 @@
         <v>43</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -37960,28 +38273,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1">
@@ -37992,7 +38305,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D2" s="54">
         <v>1</v>
@@ -38017,7 +38330,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D3" s="54">
         <v>1.1000000000000001</v>
@@ -38042,7 +38355,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D4" s="54">
         <v>1.2</v>
@@ -38067,7 +38380,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D5" s="54">
         <v>1.3</v>
@@ -38092,7 +38405,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D6" s="54">
         <v>1.4</v>
@@ -38117,7 +38430,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D7" s="54">
         <v>1.5</v>
@@ -38142,7 +38455,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D8" s="54">
         <v>1.6</v>
@@ -38177,49 +38490,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -38235,27 +38548,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -38263,7 +38576,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -38279,41 +38592,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -38329,41 +38642,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -38374,16 +38687,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -38399,7 +38712,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -38415,45 +38728,45 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -38469,45 +38782,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -38523,7 +38836,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -38539,7 +38852,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -38550,50 +38863,50 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -38604,50 +38917,50 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -38663,7 +38976,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -38671,13 +38984,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -38685,7 +38998,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -38701,49 +39014,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>

--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F9391D-2902-475A-ACE2-90A9701D3272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC578DA-9B5B-4BF4-9B80-F5CC5AE163A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="타워" sheetId="1" r:id="rId1"/>
     <sheet name="아이템스킬" sheetId="2" r:id="rId2"/>
-    <sheet name="몬스터" sheetId="4" r:id="rId3"/>
-    <sheet name="퀄리티" sheetId="5" r:id="rId4"/>
-    <sheet name="레벨시스템" sheetId="6" r:id="rId5"/>
-    <sheet name="난이도" sheetId="7" r:id="rId6"/>
-    <sheet name="지형" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="몬스터" sheetId="4" r:id="rId4"/>
+    <sheet name="퀄리티" sheetId="5" r:id="rId5"/>
+    <sheet name="레벨시스템" sheetId="6" r:id="rId6"/>
+    <sheet name="난이도" sheetId="7" r:id="rId7"/>
+    <sheet name="지형" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="330">
   <si>
     <t>IDEX</t>
   </si>
@@ -970,22 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라운드 끝날때마다 Gold +2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라운드 끝날때마다 Gold +3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라운드 끝날때마다 Gold +4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라운드 끝날때마다 Gold +5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유닛을 잡을때마다 돈증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1876,6 +1861,140 @@
       <t>모두</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염방사기로 적들을 공격합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기를 쏴서 일직선 적들을 공격합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5의배수 라운드 끝날때마다 Gold +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2의배수 라운드 끝날때마다 Gold +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3의배수 라운드 끝날때마다 Gold +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4의배수 라운드 끝날때마다 Gold +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~1.5초마다 파이어볼이 나갑니다Damage : 공격력80%</t>
+  </si>
+  <si>
+    <t>사거리가 1~5만큼 증가합니다</t>
+  </si>
+  <si>
+    <t>공격력 +10~50%</t>
+  </si>
+  <si>
+    <t>치명타% +10~50%</t>
+  </si>
+  <si>
+    <t>치명타 데미지+ 15~50%</t>
+  </si>
+  <si>
+    <t>공격속도 + 10~50%</t>
+  </si>
+  <si>
+    <t>첫대상 스턴 1초 추가 데미지 공격력 +10~50%</t>
+  </si>
+  <si>
+    <t>6~1번째 공격마다 치명타 무조건들어감</t>
+  </si>
+  <si>
+    <t>타켓된 한명 방어-1 1~5초간</t>
+  </si>
+  <si>
+    <t>라운드 끝날때마다 공격력 + 1~5%</t>
+  </si>
+  <si>
+    <t>5~1의배수 라운드 끝날때마다 Gold +1</t>
+  </si>
+  <si>
+    <t>유닛을 죽일경우 20~100%확률로 Gold + 1</t>
+  </si>
+  <si>
+    <t>스턴 걸린 상대에게 공격시 50~100% 추가 데미지</t>
+  </si>
+  <si>
+    <t>타켓된 한명 이동속도감소 10% 1~5초간</t>
+  </si>
+  <si>
+    <t>10~50%확률로 방어를 무시합니다</t>
+  </si>
+  <si>
+    <t>3초마다 미사일검이 나갑니다Damage : 공격력40~90%</t>
+  </si>
+  <si>
+    <t>3초마다 사정거리내 적을 번개마법으로 공격합니다 Damage : 공격력35~90%</t>
+  </si>
+  <si>
+    <t>7번째 공격마다 공격력 1~5%상승</t>
+  </si>
+  <si>
+    <t>공격시 0.5초뒤에 한번더 데미지를 입힙니다 Damage : 공격력 20~80%</t>
+  </si>
+  <si>
+    <t>라운드 시작시 1~5번째 공격까지 치명타가 터집니다</t>
   </si>
 </sst>
 </file>
@@ -2902,9 +3021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B0D2FC-495B-49A9-AEEA-1645B02C8A72}">
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2946,16 +3065,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
@@ -3008,10 +3127,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="2"/>
@@ -3065,10 +3184,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="4"/>
@@ -3122,10 +3241,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="3"/>
@@ -3179,10 +3298,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="2"/>
@@ -3236,7 +3355,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>33</v>
@@ -3293,7 +3412,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>34</v>
@@ -3343,14 +3462,14 @@
         <v>50</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>15</v>
@@ -3407,10 +3526,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
@@ -3464,13 +3583,13 @@
         <v>13.636363636363635</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -3523,10 +3642,10 @@
         <v>12.5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="2"/>
@@ -3573,17 +3692,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>21.428571428571431</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
@@ -3637,10 +3756,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="7"/>
@@ -3694,7 +3813,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>18</v>
@@ -3744,14 +3863,14 @@
         <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
@@ -3808,10 +3927,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="27">
         <v>1.5</v>
@@ -3860,14 +3979,14 @@
         <v>50</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -3924,7 +4043,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>14</v>
@@ -3974,17 +4093,17 @@
         <v>50</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="7"/>
@@ -4038,10 +4157,10 @@
         <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M20" s="38">
         <v>1.5</v>
@@ -4097,10 +4216,10 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="2"/>
@@ -4154,10 +4273,10 @@
         <v>93.75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="2"/>
@@ -4204,17 +4323,17 @@
         <v>50</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J23" s="16">
         <f>(D23/E23) *2</f>
         <v>108.33333333333334</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
@@ -4268,10 +4387,10 @@
         <v>110</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
@@ -4325,10 +4444,10 @@
         <v>60</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="7"/>
@@ -4382,7 +4501,7 @@
         <v>216.66666666666669</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>17</v>
@@ -4432,17 +4551,17 @@
         <v>50</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J27" s="16">
         <f>D27/E27*2</f>
         <v>213.33333333333334</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="2"/>
@@ -4489,14 +4608,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J28" s="16">
         <f>D28/E28*4</f>
         <v>240</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>11</v>
@@ -4546,20 +4665,20 @@
         <v>50</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J29" s="16">
         <f>D29/E29 * 10</f>
         <v>125</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
@@ -4612,10 +4731,10 @@
         <v>214.28571428571431</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
@@ -4669,10 +4788,10 @@
         <v>100</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="7"/>
@@ -4726,7 +4845,7 @@
         <v>500</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>19</v>
@@ -4776,17 +4895,17 @@
         <v>50</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
@@ -4840,10 +4959,10 @@
         <v>259</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="2"/>
@@ -4890,14 +5009,14 @@
         <v>50</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J35" s="16">
         <f>D35/E35 *3</f>
         <v>465</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>39</v>
@@ -4947,17 +5066,17 @@
         <v>50</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
@@ -5004,14 +5123,14 @@
         <v>100</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J37" s="35">
         <f>D37/E37 * 3</f>
         <v>499.5</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>40</v>
@@ -5061,17 +5180,17 @@
         <v>50</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L38" s="40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="5"/>
@@ -5125,7 +5244,7 @@
         <v>1000</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>22</v>
@@ -5175,14 +5294,14 @@
         <v>50</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>41</v>
@@ -5232,14 +5351,14 @@
         <v>50</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>21</v>
@@ -5296,7 +5415,7 @@
         <v>360</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L42" s="39" t="s">
         <v>20</v>
@@ -5353,10 +5472,10 @@
         <v>1036.6666666666667</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="7"/>
@@ -5403,14 +5522,14 @@
         <v>50</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -5467,7 +5586,7 @@
         <v>1998</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>27</v>
@@ -5524,7 +5643,7 @@
         <v>1776</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>42</v>
@@ -5581,10 +5700,10 @@
         <v>666</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="2"/>
@@ -5631,14 +5750,14 @@
         <v>50</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
         <v>2082.5</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L48" s="36" t="s">
         <v>23</v>
@@ -5695,10 +5814,10 @@
         <v>1300</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
@@ -5752,10 +5871,10 @@
         <v>178.57142857142858</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="5"/>
@@ -5784,7 +5903,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="23">
         <v>44</v>
@@ -5809,10 +5928,10 @@
         <v>440</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L51" s="44" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
@@ -5859,17 +5978,17 @@
         <v>50</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
@@ -5916,17 +6035,17 @@
         <v>50</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5979,10 +6098,10 @@
         <v>44</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -6035,10 +6154,10 @@
         <v>250</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6091,10 +6210,10 @@
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="L56" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -6143,14 +6262,14 @@
         <v>56</v>
       </c>
       <c r="J57" s="23">
-        <f t="shared" ref="J57:J68" si="1">D57/E57</f>
+        <f t="shared" ref="J57:J67" si="1">D57/E57</f>
         <v>1000</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6181,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="23">
-        <v>1111</v>
+        <v>999</v>
       </c>
       <c r="E58" s="23">
         <v>0.7</v>
@@ -6200,13 +6319,13 @@
       </c>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>1587.1428571428573</v>
+        <v>1427.1428571428573</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -6252,17 +6371,17 @@
         <v>50</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6286,12 +6405,14 @@
       <c r="A60" s="22">
         <v>58</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="23">
+        <v>7</v>
+      </c>
       <c r="C60" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="23">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E60" s="23">
         <v>2</v>
@@ -6305,9 +6426,15 @@
       <c r="H60" s="23">
         <v>50</v>
       </c>
+      <c r="I60" s="40" t="s">
+        <v>296</v>
+      </c>
       <c r="J60" s="23">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f>D60/E60 * 5</f>
+        <v>500</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6331,15 +6458,17 @@
       <c r="A61" s="22">
         <v>59</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="23">
+        <v>4</v>
+      </c>
       <c r="C61" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="23">
-        <v>2000</v>
+        <v>133</v>
       </c>
       <c r="E61" s="23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F61" s="23">
         <v>9</v>
@@ -6350,9 +6479,15 @@
       <c r="H61" s="23">
         <v>50</v>
       </c>
+      <c r="I61" t="s">
+        <v>297</v>
+      </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>88.666666666666671</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>299</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -35317,7 +35452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H22"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="A3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35398,19 +35533,19 @@
         <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="I3" t="s">
         <v>72</v>
@@ -35576,7 +35711,7 @@
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -35590,19 +35725,19 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" t="s">
-        <v>162</v>
       </c>
       <c r="I9" t="s">
         <v>108</v>
@@ -35718,19 +35853,19 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" t="s">
         <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" t="s">
-        <v>131</v>
       </c>
       <c r="I13" t="s">
         <v>126</v>
@@ -35750,22 +35885,22 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" t="s">
         <v>133</v>
       </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>137</v>
-      </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -35782,22 +35917,22 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="E15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" t="s">
-        <v>143</v>
-      </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -35814,22 +35949,22 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" t="s">
         <v>280</v>
       </c>
-      <c r="E16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H16" t="s">
-        <v>284</v>
-      </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -35846,25 +35981,25 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
         <v>146</v>
       </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" t="s">
-        <v>150</v>
-      </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
@@ -35878,22 +36013,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="H18" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -35910,25 +36045,25 @@
         <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -35942,22 +36077,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" t="s">
         <v>200</v>
       </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" t="s">
-        <v>204</v>
-      </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -35974,22 +36109,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" t="s">
         <v>168</v>
       </c>
-      <c r="E21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>172</v>
-      </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -36006,22 +36141,22 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
         <v>153</v>
       </c>
-      <c r="H22" t="s">
-        <v>157</v>
-      </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -36035,40 +36170,222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6822A-A25E-4D11-8875-C69EABB0A644}">
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD991E-76B1-488B-B603-BE3AD2200A10}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="120.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" customHeight="1">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" customHeight="1">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6822A-A25E-4D11-8875-C69EABB0A644}">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="A2:H98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -36224,7 +36541,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -36354,7 +36671,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -36484,7 +36801,7 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -36614,7 +36931,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -36744,7 +37061,7 @@
         <v>11</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -36874,7 +37191,7 @@
         <v>13</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -37004,7 +37321,7 @@
         <v>15</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -37134,7 +37451,7 @@
         <v>17</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -37264,7 +37581,7 @@
         <v>19</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -37293,7 +37610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>47</v>
       </c>
@@ -37319,7 +37636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>48</v>
       </c>
@@ -37345,7 +37662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>49</v>
       </c>
@@ -37371,7 +37688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>50</v>
       </c>
@@ -37394,10 +37711,13 @@
         <v>21</v>
       </c>
       <c r="H52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>51</v>
       </c>
@@ -37423,7 +37743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>52</v>
       </c>
@@ -37449,7 +37769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>53</v>
       </c>
@@ -37475,7 +37795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>54</v>
       </c>
@@ -37501,7 +37821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>55</v>
       </c>
@@ -37524,10 +37844,10 @@
         <v>23</v>
       </c>
       <c r="H57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>56</v>
       </c>
@@ -37553,7 +37873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>57</v>
       </c>
@@ -37579,7 +37899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>58</v>
       </c>
@@ -37605,7 +37925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>59</v>
       </c>
@@ -37631,7 +37951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>60</v>
       </c>
@@ -37654,10 +37974,13 @@
         <v>25</v>
       </c>
       <c r="H62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>61</v>
       </c>
@@ -37683,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>62</v>
       </c>
@@ -37709,7 +38032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>63</v>
       </c>
@@ -37735,7 +38058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>64</v>
       </c>
@@ -37761,7 +38084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>65</v>
       </c>
@@ -37784,10 +38107,10 @@
         <v>27</v>
       </c>
       <c r="H67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>66</v>
       </c>
@@ -37813,7 +38136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>67</v>
       </c>
@@ -37839,7 +38162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>68</v>
       </c>
@@ -37865,7 +38188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>69</v>
       </c>
@@ -37891,7 +38214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>70</v>
       </c>
@@ -37914,7 +38237,695 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73">
+        <v>20000</v>
+      </c>
+      <c r="F73">
+        <v>200</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>22000</v>
+      </c>
+      <c r="F74">
+        <v>200</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <v>25000</v>
+      </c>
+      <c r="F75">
+        <v>200</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76">
+        <v>28000</v>
+      </c>
+      <c r="F76">
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>200000</v>
+      </c>
+      <c r="F77">
+        <v>200</v>
+      </c>
+      <c r="G77">
+        <v>33</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>30000</v>
+      </c>
+      <c r="F78">
+        <v>200</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79">
+        <v>33000</v>
+      </c>
+      <c r="F79">
+        <v>200</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>36000</v>
+      </c>
+      <c r="F80">
+        <v>200</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>40000</v>
+      </c>
+      <c r="F81">
+        <v>200</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>250000</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
+      </c>
+      <c r="G82">
+        <v>36</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83">
+        <v>42000</v>
+      </c>
+      <c r="F83">
+        <v>200</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84">
+        <v>44000</v>
+      </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85">
+        <v>46000</v>
+      </c>
+      <c r="F85">
+        <v>200</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>48000</v>
+      </c>
+      <c r="F86">
+        <v>200</v>
+      </c>
+      <c r="G86">
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87">
+        <v>300000</v>
+      </c>
+      <c r="F87">
+        <v>200</v>
+      </c>
+      <c r="G87">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>50000</v>
+      </c>
+      <c r="F88">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89">
+        <v>52000</v>
+      </c>
+      <c r="F89">
+        <v>200</v>
+      </c>
+      <c r="G89">
+        <v>17</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90">
+        <v>54000</v>
+      </c>
+      <c r="F90">
+        <v>200</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91">
+        <v>56000</v>
+      </c>
+      <c r="F91">
+        <v>200</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92">
+        <v>400000</v>
+      </c>
+      <c r="F92">
+        <v>200</v>
+      </c>
+      <c r="G92">
+        <v>43</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>58000</v>
+      </c>
+      <c r="F93">
+        <v>200</v>
+      </c>
+      <c r="G93">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>60000</v>
+      </c>
+      <c r="F94">
+        <v>200</v>
+      </c>
+      <c r="G94">
+        <v>18</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95">
+        <v>62000</v>
+      </c>
+      <c r="F95">
+        <v>200</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96">
+        <v>64000</v>
+      </c>
+      <c r="F96">
+        <v>200</v>
+      </c>
+      <c r="G96">
+        <v>18</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97">
+        <v>450000</v>
+      </c>
+      <c r="F97">
+        <v>200</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98">
+        <v>70000</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -37924,12 +38935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827DD813-BFF3-4EF2-8F97-5A3A375613A5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -37939,13 +38950,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -38038,7 +39049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ACB7A5-3678-45F3-88B9-51B8D98A1F5E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -38053,16 +39064,16 @@
         <v>43</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -38258,12 +39269,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB354F0-D6CF-420F-84ED-8942F6E6D0B2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38273,28 +39284,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>257</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1">
@@ -38305,7 +39316,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D2" s="54">
         <v>1</v>
@@ -38317,7 +39328,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -38330,7 +39341,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D3" s="54">
         <v>1.1000000000000001</v>
@@ -38342,7 +39353,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -38355,7 +39366,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D4" s="54">
         <v>1.2</v>
@@ -38367,7 +39378,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -38380,7 +39391,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D5" s="54">
         <v>1.3</v>
@@ -38392,7 +39403,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -38405,7 +39416,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D6" s="54">
         <v>1.4</v>
@@ -38430,7 +39441,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D7" s="54">
         <v>1.5</v>
@@ -38455,7 +39466,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D8" s="54">
         <v>1.6</v>
@@ -38467,7 +39478,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -38475,10 +39486,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB2463-6E45-47D5-9235-9A29FF17C381}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -38490,49 +39502,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -38548,27 +39560,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -38576,7 +39588,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -38592,41 +39604,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -38642,41 +39654,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -38687,16 +39699,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -38712,7 +39724,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -38728,45 +39740,45 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -38782,45 +39794,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -38836,7 +39848,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -38852,7 +39864,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -38863,50 +39875,50 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -38917,50 +39929,50 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -38976,7 +39988,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -38984,13 +39996,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -38998,7 +40010,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -39014,49 +40026,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>

--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC578DA-9B5B-4BF4-9B80-F5CC5AE163A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA91FE58-7F44-49B2-B115-39C48A822900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
+    <workbookView minimized="1" xWindow="12660" yWindow="3330" windowWidth="10155" windowHeight="6000" activeTab="4" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="타워" sheetId="1" r:id="rId1"/>
-    <sheet name="아이템스킬" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
-    <sheet name="몬스터" sheetId="4" r:id="rId4"/>
-    <sheet name="퀄리티" sheetId="5" r:id="rId5"/>
-    <sheet name="레벨시스템" sheetId="6" r:id="rId6"/>
-    <sheet name="난이도" sheetId="7" r:id="rId7"/>
+    <sheet name="난이도" sheetId="7" r:id="rId2"/>
+    <sheet name="레벨시스템" sheetId="6" r:id="rId3"/>
+    <sheet name="퀄리티" sheetId="5" r:id="rId4"/>
+    <sheet name="몬스터" sheetId="4" r:id="rId5"/>
+    <sheet name="아이템스킬" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
     <sheet name="지형" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="329">
   <si>
     <t>IDEX</t>
   </si>
@@ -1697,9 +1697,6 @@
     <t>어려움+++</t>
   </si>
   <si>
-    <t>어려움++++</t>
-  </si>
-  <si>
     <t>벽</t>
   </si>
   <si>
@@ -2545,15 +2542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:colOff>2066925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2568,7 +2565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17506950" y="171450"/>
+          <a:off x="14258925" y="152400"/>
           <a:ext cx="2847975" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3022,8 +3019,8 @@
   <dimension ref="A1:AD991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3032,11 +3029,11 @@
     <col min="9" max="9" width="55.25" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="43.5" customWidth="1"/>
+    <col min="12" max="12" width="1.25" customWidth="1"/>
     <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="59" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:30" s="59" customFormat="1" ht="26.25" thickBot="1">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3091,7 @@
       <c r="AC1" s="58"/>
       <c r="AD1" s="58"/>
     </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1">
+    <row r="2" spans="1:30" ht="48.75" thickBot="1">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -3151,7 +3148,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="17.25" thickBot="1">
+    <row r="3" spans="1:30" ht="24.75" thickBot="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -3208,7 +3205,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="17.25" thickBot="1">
+    <row r="4" spans="1:30" ht="96.75" thickBot="1">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -3265,7 +3262,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="17.25" thickBot="1">
+    <row r="5" spans="1:30" ht="37.5" thickBot="1">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3322,7 +3319,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="17.25" thickBot="1">
+    <row r="6" spans="1:30" ht="24.75" thickBot="1">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -3379,7 +3376,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="7" spans="1:30" s="9" customFormat="1" ht="24.75" thickBot="1">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -3436,7 +3433,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="17.25" thickBot="1">
+    <row r="8" spans="1:30" ht="27.75" thickBot="1">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
@@ -3493,7 +3490,7 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
     </row>
-    <row r="9" spans="1:30" ht="17.25" thickBot="1">
+    <row r="9" spans="1:30" ht="36.75" thickBot="1">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -3550,7 +3547,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="17.25" thickBot="1">
+    <row r="10" spans="1:30" ht="36.75" thickBot="1">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -3609,7 +3606,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="17.25" thickBot="1">
+    <row r="11" spans="1:30" ht="27.75" thickBot="1">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -3666,7 +3663,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="24.75" thickBot="1">
+    <row r="12" spans="1:30" ht="41.25" thickBot="1">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -3723,7 +3720,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="13" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -3780,7 +3777,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="17.25" thickBot="1">
+    <row r="14" spans="1:30" ht="24.75" thickBot="1">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -3837,7 +3834,7 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="24.75" thickBot="1">
+    <row r="15" spans="1:30" ht="48.75" thickBot="1">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -3894,7 +3891,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="17.25" thickBot="1">
+    <row r="16" spans="1:30" ht="41.25" thickBot="1">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -3953,7 +3950,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="17.25" thickBot="1">
+    <row r="17" spans="1:30" ht="36.75" thickBot="1">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -3979,14 +3976,14 @@
         <v>50</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -4067,7 +4064,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="19" spans="1:30" s="9" customFormat="1" ht="60.75" thickBot="1">
       <c r="A19" s="31">
         <v>17</v>
       </c>
@@ -4093,7 +4090,7 @@
         <v>50</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
@@ -4124,7 +4121,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="17.25" thickBot="1">
+    <row r="20" spans="1:30" ht="27.75" thickBot="1">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -4183,7 +4180,7 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
     </row>
-    <row r="21" spans="1:30" ht="17.25" thickBot="1">
+    <row r="21" spans="1:30" ht="24.75" thickBot="1">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="17.25" thickBot="1">
+    <row r="22" spans="1:30" ht="27.75" thickBot="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -4297,7 +4294,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" ht="17.25" thickBot="1">
+    <row r="23" spans="1:30" ht="60.75" thickBot="1">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -4354,7 +4351,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="17.25" thickBot="1">
+    <row r="24" spans="1:30" ht="48.75" thickBot="1">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -4411,7 +4408,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="36.75" thickBot="1">
       <c r="A25" s="31">
         <v>23</v>
       </c>
@@ -4468,7 +4465,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="17.25" thickBot="1">
+    <row r="26" spans="1:30" ht="36.75" thickBot="1">
       <c r="A26" s="29">
         <v>24</v>
       </c>
@@ -4525,7 +4522,7 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:30" ht="24.75" thickBot="1">
+    <row r="27" spans="1:30" ht="68.25" thickBot="1">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -4582,7 +4579,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" ht="17.25" thickBot="1">
+    <row r="28" spans="1:30" ht="84.75" thickBot="1">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -4639,7 +4636,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" ht="17.25" thickBot="1">
+    <row r="29" spans="1:30" ht="48.75" thickBot="1">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -4698,7 +4695,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="17.25" thickBot="1">
+    <row r="30" spans="1:30" ht="24.75" thickBot="1">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -4755,7 +4752,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="27.75" thickBot="1">
       <c r="A31" s="31">
         <v>29</v>
       </c>
@@ -4812,7 +4809,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="17.25" thickBot="1">
+    <row r="32" spans="1:30" ht="68.25" thickBot="1">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -4869,7 +4866,7 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="17.25" thickBot="1">
+    <row r="33" spans="1:30" ht="60.75" thickBot="1">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -4926,7 +4923,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" ht="17.25" thickBot="1">
+    <row r="34" spans="1:30" ht="36.75" thickBot="1">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -4983,7 +4980,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" ht="17.25" thickBot="1">
+    <row r="35" spans="1:30" ht="60.75" thickBot="1">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -5040,7 +5037,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" ht="24.75" thickBot="1">
+    <row r="36" spans="1:30" ht="54.75" thickBot="1">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -5097,7 +5094,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="37" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
       <c r="A37" s="31">
         <v>35</v>
       </c>
@@ -5154,7 +5151,7 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="1:30" ht="17.25" thickBot="1">
+    <row r="38" spans="1:30" ht="24.75" thickBot="1">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -5211,7 +5208,7 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:30" ht="17.25" thickBot="1">
+    <row r="39" spans="1:30" ht="81.75" thickBot="1">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -5268,7 +5265,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="17.25" thickBot="1">
+    <row r="40" spans="1:30" ht="54.75" thickBot="1">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -5325,7 +5322,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="17.25" thickBot="1">
+    <row r="41" spans="1:30" ht="84.75" thickBot="1">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -5382,7 +5379,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" ht="17.25" thickBot="1">
+    <row r="42" spans="1:30" ht="73.5" thickBot="1">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -5439,7 +5436,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="43" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
       <c r="A43" s="31">
         <v>41</v>
       </c>
@@ -5496,7 +5493,7 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="1:30" ht="17.25" thickBot="1">
+    <row r="44" spans="1:30" ht="36.75" thickBot="1">
       <c r="A44" s="29">
         <v>42</v>
       </c>
@@ -5553,7 +5550,7 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:30" ht="17.25" thickBot="1">
+    <row r="45" spans="1:30" ht="36.75" thickBot="1">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -5610,7 +5607,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" ht="17.25" thickBot="1">
+    <row r="46" spans="1:30" ht="41.25" thickBot="1">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -5667,7 +5664,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="17.25" thickBot="1">
+    <row r="47" spans="1:30" ht="27.75" thickBot="1">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -5724,7 +5721,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" ht="27.75" thickBot="1">
+    <row r="48" spans="1:30" ht="54.75" thickBot="1">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -5781,7 +5778,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
+    <row r="49" spans="1:30" s="9" customFormat="1" ht="68.25" thickBot="1">
       <c r="A49" s="31">
         <v>47</v>
       </c>
@@ -5838,7 +5835,7 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
     </row>
-    <row r="50" spans="1:30" ht="17.25" thickBot="1">
+    <row r="50" spans="1:30" ht="60.75" thickBot="1">
       <c r="A50" s="29">
         <v>48</v>
       </c>
@@ -5895,7 +5892,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:30" ht="17.25" thickBot="1">
+    <row r="51" spans="1:30" ht="24.75" thickBot="1">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -5903,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D51" s="23">
         <v>44</v>
@@ -5928,10 +5925,10 @@
         <v>440</v>
       </c>
       <c r="K51" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="L51" s="44" t="s">
         <v>274</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>275</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
@@ -5952,7 +5949,7 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" ht="17.25" thickBot="1">
+    <row r="52" spans="1:30" ht="54.75" thickBot="1">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -5978,17 +5975,17 @@
         <v>50</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
@@ -6009,7 +6006,7 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" ht="17.25" thickBot="1">
+    <row r="53" spans="1:30" ht="41.25" thickBot="1">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -6035,17 +6032,17 @@
         <v>50</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -6065,7 +6062,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" ht="17.25" thickBot="1">
+    <row r="54" spans="1:30" ht="48.75" thickBot="1">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -6098,10 +6095,10 @@
         <v>44</v>
       </c>
       <c r="K54" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -6121,7 +6118,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" ht="17.25" thickBot="1">
+    <row r="55" spans="1:30" ht="24.75" thickBot="1">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -6154,10 +6151,10 @@
         <v>250</v>
       </c>
       <c r="K55" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6177,7 +6174,7 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" ht="17.25" thickBot="1">
+    <row r="56" spans="1:30" ht="72.75" thickBot="1">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -6210,10 +6207,10 @@
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -6233,7 +6230,7 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" ht="17.25" thickBot="1">
+    <row r="57" spans="1:30" ht="36.75" thickBot="1">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -6266,10 +6263,10 @@
         <v>1000</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6289,7 +6286,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" ht="17.25" thickBot="1">
+    <row r="58" spans="1:30" ht="60.75" thickBot="1">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -6322,10 +6319,10 @@
         <v>1427.1428571428573</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -6345,7 +6342,7 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" ht="17.25" thickBot="1">
+    <row r="59" spans="1:30" ht="36.75" thickBot="1">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -6371,17 +6368,17 @@
         <v>50</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6427,14 +6424,14 @@
         <v>50</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J60" s="23">
         <f>D60/E60 * 5</f>
         <v>500</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6480,14 +6477,14 @@
         <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
         <v>88.666666666666671</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -6805,894 +6802,7 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-    </row>
-    <row r="70" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="14"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-    </row>
-    <row r="71" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-    </row>
-    <row r="72" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="23"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-    </row>
-    <row r="73" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-    </row>
-    <row r="74" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="23"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-    </row>
-    <row r="75" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-    </row>
-    <row r="76" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-    </row>
-    <row r="77" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-    </row>
-    <row r="78" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-    </row>
-    <row r="79" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-    </row>
-    <row r="80" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-    </row>
-    <row r="81" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-    </row>
-    <row r="82" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-    </row>
-    <row r="83" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-    </row>
-    <row r="84" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-    </row>
-    <row r="85" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-    </row>
-    <row r="86" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-    </row>
-    <row r="87" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-    </row>
-    <row r="88" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-    </row>
-    <row r="89" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-    </row>
-    <row r="90" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-    </row>
-    <row r="91" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-    </row>
-    <row r="93" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-    </row>
-    <row r="94" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-    </row>
-    <row r="95" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-    </row>
-    <row r="96" spans="1:30" ht="17.25" thickBot="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-    </row>
+    <row r="96" ht="17.25" thickBot="1"/>
     <row r="97" spans="1:30" ht="17.25" thickBot="1">
       <c r="A97" s="10"/>
       <c r="B97" s="12"/>
@@ -7755,7 +6865,7 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="1:30" ht="17.25" thickBot="1">
+    <row r="99" spans="1:30" ht="185.25" thickBot="1">
       <c r="A99" s="10"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -7764,10 +6874,14 @@
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
+      <c r="I99" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="23"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7796,9 +6910,9 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
+      <c r="J100" s="23"/>
       <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
+      <c r="L100" s="14"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7817,7 +6931,7 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
     </row>
-    <row r="101" spans="1:30" ht="17.25" thickBot="1">
+    <row r="101" spans="1:30" ht="49.5" thickBot="1">
       <c r="A101" s="10"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -7827,9 +6941,11 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
+      <c r="J101" s="23"/>
       <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
+      <c r="L101" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7848,7 +6964,7 @@
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
     </row>
-    <row r="102" spans="1:30" ht="17.25" thickBot="1">
+    <row r="102" spans="1:30" ht="25.5" thickBot="1">
       <c r="A102" s="10"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -7857,10 +6973,14 @@
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
+      <c r="I102" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J102" s="23"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7879,7 +6999,7 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="1:30" ht="17.25" thickBot="1">
+    <row r="103" spans="1:30" ht="100.5" thickBot="1">
       <c r="A103" s="10"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7889,9 +7009,11 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
+      <c r="J103" s="23"/>
       <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
+      <c r="L103" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7910,7 +7032,7 @@
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="1:30" ht="17.25" thickBot="1">
+    <row r="104" spans="1:30" ht="61.5" thickBot="1">
       <c r="A104" s="10"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -7919,10 +7041,14 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
+      <c r="I104" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="23"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -7941,7 +7067,7 @@
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
     </row>
-    <row r="105" spans="1:30" ht="17.25" thickBot="1">
+    <row r="105" spans="1:30" ht="61.5" thickBot="1">
       <c r="A105" s="10"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -7951,9 +7077,11 @@
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
+      <c r="J105" s="23"/>
       <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
+      <c r="L105" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -7982,7 +7110,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
+      <c r="J106" s="23"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="N106" s="1"/>
@@ -8013,7 +7141,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
+      <c r="J107" s="23"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="N107" s="1"/>
@@ -8044,7 +7172,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
+      <c r="J108" s="23"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="N108" s="1"/>
@@ -8075,7 +7203,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
+      <c r="J109" s="23"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="N109" s="1"/>
@@ -8158,7 +7286,7 @@
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
     </row>
-    <row r="112" spans="1:30" ht="17.25" thickBot="1">
+    <row r="112" spans="1:30" ht="149.25" thickBot="1">
       <c r="A112" s="10"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -8170,7 +7298,9 @@
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
+      <c r="L112" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -35447,12 +34577,3129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB354F0-D6CF-420F-84ED-8942F6E6D0B2}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="54">
+        <v>1</v>
+      </c>
+      <c r="E2" s="54">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="54">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="54">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ACB7A5-3678-45F3-88B9-51B8D98A1F5E}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A2" s="51">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0</v>
+      </c>
+      <c r="E2" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A3" s="51">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52">
+        <v>2</v>
+      </c>
+      <c r="C4" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="52">
+        <v>3</v>
+      </c>
+      <c r="C5" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A6" s="51">
+        <v>4</v>
+      </c>
+      <c r="B6" s="52">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A7" s="51">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.35</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A8" s="51">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A9" s="51">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52">
+        <v>7</v>
+      </c>
+      <c r="C9" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52">
+        <v>8</v>
+      </c>
+      <c r="C10" s="53">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="52">
+        <v>9</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="E11" s="53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A12" s="51">
+        <v>10</v>
+      </c>
+      <c r="B12" s="52">
+        <v>10</v>
+      </c>
+      <c r="C12" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827DD813-BFF3-4EF2-8F97-5A3A375613A5}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6822A-A25E-4D11-8875-C69EABB0A644}">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="A2:G98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>130</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>170</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>1200</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>350</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>550</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>650</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>800</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>850</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>6000</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>800</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>900</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>1100</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>8000</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>1500</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>1700</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>1900</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>2100</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>16000</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>2400</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29">
+        <v>2500</v>
+      </c>
+      <c r="F29">
+        <v>200</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>2800</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>2900</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>25000</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>3200</v>
+      </c>
+      <c r="F33">
+        <v>200</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>3400</v>
+      </c>
+      <c r="F34">
+        <v>200</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35">
+        <v>3600</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>3800</v>
+      </c>
+      <c r="F36">
+        <v>200</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>35000</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>4000</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>4200</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>4500</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>4800</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>45000</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>5000</v>
+      </c>
+      <c r="F43">
+        <v>200</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>5200</v>
+      </c>
+      <c r="F44">
+        <v>200</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>5400</v>
+      </c>
+      <c r="F45">
+        <v>200</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>5600</v>
+      </c>
+      <c r="F46">
+        <v>200</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>55000</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>5800</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>6000</v>
+      </c>
+      <c r="F49">
+        <v>200</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50">
+        <v>6200</v>
+      </c>
+      <c r="F50">
+        <v>200</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <v>6500</v>
+      </c>
+      <c r="F51">
+        <v>200</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>65000</v>
+      </c>
+      <c r="F52">
+        <v>200</v>
+      </c>
+      <c r="G52">
+        <v>21</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>7000</v>
+      </c>
+      <c r="F53">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>7200</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55">
+        <v>7400</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56">
+        <v>7600</v>
+      </c>
+      <c r="F56">
+        <v>200</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>80000</v>
+      </c>
+      <c r="F57">
+        <v>200</v>
+      </c>
+      <c r="G57">
+        <v>23</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58">
+        <v>7800</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59">
+        <v>8000</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60">
+        <v>8200</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61">
+        <v>84000</v>
+      </c>
+      <c r="F61">
+        <v>200</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62">
+        <v>90000</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63">
+        <v>9000</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64">
+        <v>9300</v>
+      </c>
+      <c r="F64">
+        <v>200</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65">
+        <v>9600</v>
+      </c>
+      <c r="F65">
+        <v>200</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66">
+        <v>10000</v>
+      </c>
+      <c r="F66">
+        <v>200</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <v>100000</v>
+      </c>
+      <c r="F67">
+        <v>200</v>
+      </c>
+      <c r="G67">
+        <v>27</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>11000</v>
+      </c>
+      <c r="F68">
+        <v>200</v>
+      </c>
+      <c r="G68">
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69">
+        <v>12000</v>
+      </c>
+      <c r="F69">
+        <v>200</v>
+      </c>
+      <c r="G69">
+        <v>13</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70">
+        <v>13000</v>
+      </c>
+      <c r="F70">
+        <v>200</v>
+      </c>
+      <c r="G70">
+        <v>13</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71">
+        <v>14000</v>
+      </c>
+      <c r="F71">
+        <v>200</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72">
+        <v>120000</v>
+      </c>
+      <c r="F72">
+        <v>200</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73">
+        <v>15000</v>
+      </c>
+      <c r="F73">
+        <v>200</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>16000</v>
+      </c>
+      <c r="F74">
+        <v>200</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <v>17000</v>
+      </c>
+      <c r="F75">
+        <v>200</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76">
+        <v>18000</v>
+      </c>
+      <c r="F76">
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>150000</v>
+      </c>
+      <c r="F77">
+        <v>200</v>
+      </c>
+      <c r="G77">
+        <v>33</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>20000</v>
+      </c>
+      <c r="F78">
+        <v>200</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79">
+        <v>21000</v>
+      </c>
+      <c r="F79">
+        <v>200</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>22000</v>
+      </c>
+      <c r="F80">
+        <v>200</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>23000</v>
+      </c>
+      <c r="F81">
+        <v>200</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>180000</v>
+      </c>
+      <c r="F82">
+        <v>200</v>
+      </c>
+      <c r="G82">
+        <v>36</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83">
+        <v>25000</v>
+      </c>
+      <c r="F83">
+        <v>200</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84">
+        <v>28000</v>
+      </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85">
+        <v>30000</v>
+      </c>
+      <c r="F85">
+        <v>200</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>32000</v>
+      </c>
+      <c r="F86">
+        <v>200</v>
+      </c>
+      <c r="G86">
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87">
+        <v>200000</v>
+      </c>
+      <c r="F87">
+        <v>200</v>
+      </c>
+      <c r="G87">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>34000</v>
+      </c>
+      <c r="F88">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89">
+        <v>36000</v>
+      </c>
+      <c r="F89">
+        <v>200</v>
+      </c>
+      <c r="G89">
+        <v>17</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90">
+        <v>38000</v>
+      </c>
+      <c r="F90">
+        <v>200</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91">
+        <v>40000</v>
+      </c>
+      <c r="F91">
+        <v>200</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92">
+        <v>300000</v>
+      </c>
+      <c r="F92">
+        <v>200</v>
+      </c>
+      <c r="G92">
+        <v>43</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>42000</v>
+      </c>
+      <c r="F93">
+        <v>200</v>
+      </c>
+      <c r="G93">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>45000</v>
+      </c>
+      <c r="F94">
+        <v>200</v>
+      </c>
+      <c r="G94">
+        <v>18</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95">
+        <v>47000</v>
+      </c>
+      <c r="F95">
+        <v>200</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96">
+        <v>64000</v>
+      </c>
+      <c r="F96">
+        <v>200</v>
+      </c>
+      <c r="G96">
+        <v>18</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97">
+        <v>350000</v>
+      </c>
+      <c r="F97">
+        <v>200</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98">
+        <v>70000</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A7EC0C-3E2A-4F11-BA28-1F2039F7A6E8}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="A3:D22"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35853,16 +38100,16 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
         <v>300</v>
-      </c>
-      <c r="E13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" t="s">
-        <v>301</v>
       </c>
       <c r="H13" t="s">
         <v>127</v>
@@ -35949,19 +38196,19 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" t="s">
         <v>276</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>277</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>278</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>279</v>
-      </c>
-      <c r="H16" t="s">
-        <v>280</v>
       </c>
       <c r="I16" t="s">
         <v>140</v>
@@ -36169,11 +38416,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD991E-76B1-488B-B603-BE3AD2200A10}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -36187,7 +38434,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
@@ -36195,7 +38442,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
@@ -36203,7 +38450,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1">
@@ -36211,7 +38458,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1">
@@ -36219,7 +38466,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1">
@@ -36227,7 +38474,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1">
@@ -36235,7 +38482,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1">
@@ -36243,7 +38490,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1">
@@ -36251,7 +38498,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1">
@@ -36259,7 +38506,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1">
@@ -36267,7 +38514,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1">
@@ -36275,7 +38522,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -36283,7 +38530,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1">
@@ -36291,7 +38538,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1">
@@ -36299,7 +38546,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1">
@@ -36307,7 +38554,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1">
@@ -36315,7 +38562,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
@@ -36323,7 +38570,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
@@ -36331,7 +38578,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
@@ -36339,3154 +38586,12 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6822A-A25E-4D11-8875-C69EABB0A644}">
-  <dimension ref="A1:I98"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="A2:H98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A1" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>130</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>170</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>1200</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>250</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10">
-        <v>350</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>400</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>550</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>650</v>
-      </c>
-      <c r="F14">
-        <v>200</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>800</v>
-      </c>
-      <c r="F15">
-        <v>200</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <v>850</v>
-      </c>
-      <c r="F16">
-        <v>200</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17">
-        <v>6000</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>800</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19">
-        <v>900</v>
-      </c>
-      <c r="F19">
-        <v>200</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20">
-        <v>200</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>1100</v>
-      </c>
-      <c r="F21">
-        <v>200</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22">
-        <v>8000</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23">
-        <v>1500</v>
-      </c>
-      <c r="F23">
-        <v>200</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <v>1700</v>
-      </c>
-      <c r="F24">
-        <v>200</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>1900</v>
-      </c>
-      <c r="F25">
-        <v>200</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26">
-        <v>2100</v>
-      </c>
-      <c r="F26">
-        <v>200</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>16000</v>
-      </c>
-      <c r="F27">
-        <v>200</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28">
-        <v>2400</v>
-      </c>
-      <c r="F28">
-        <v>200</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29">
-        <v>2500</v>
-      </c>
-      <c r="F29">
-        <v>200</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <v>2800</v>
-      </c>
-      <c r="F30">
-        <v>200</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31">
-        <v>2900</v>
-      </c>
-      <c r="F31">
-        <v>200</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32">
-        <v>25000</v>
-      </c>
-      <c r="F32">
-        <v>200</v>
-      </c>
-      <c r="G32">
-        <v>13</v>
-      </c>
-      <c r="H32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33">
-        <v>3200</v>
-      </c>
-      <c r="F33">
-        <v>200</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34">
-        <v>3400</v>
-      </c>
-      <c r="F34">
-        <v>200</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35">
-        <v>3600</v>
-      </c>
-      <c r="F35">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36">
-        <v>3800</v>
-      </c>
-      <c r="F36">
-        <v>200</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37">
-        <v>35000</v>
-      </c>
-      <c r="F37">
-        <v>200</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
-      </c>
-      <c r="H37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38">
-        <v>4000</v>
-      </c>
-      <c r="F38">
-        <v>200</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39">
-        <v>4200</v>
-      </c>
-      <c r="F39">
-        <v>200</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40">
-        <v>4500</v>
-      </c>
-      <c r="F40">
-        <v>200</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41">
-        <v>4800</v>
-      </c>
-      <c r="F41">
-        <v>200</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42">
-        <v>45000</v>
-      </c>
-      <c r="F42">
-        <v>200</v>
-      </c>
-      <c r="G42">
-        <v>17</v>
-      </c>
-      <c r="H42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>5000</v>
-      </c>
-      <c r="F43">
-        <v>200</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44">
-        <v>5200</v>
-      </c>
-      <c r="F44">
-        <v>200</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
-        <v>5400</v>
-      </c>
-      <c r="F45">
-        <v>200</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46">
-        <v>5600</v>
-      </c>
-      <c r="F46">
-        <v>200</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>60000</v>
-      </c>
-      <c r="F47">
-        <v>200</v>
-      </c>
-      <c r="G47">
-        <v>19</v>
-      </c>
-      <c r="H47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48">
-        <v>6200</v>
-      </c>
-      <c r="F48">
-        <v>200</v>
-      </c>
-      <c r="G48">
-        <v>9</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49">
-        <v>6500</v>
-      </c>
-      <c r="F49">
-        <v>200</v>
-      </c>
-      <c r="G49">
-        <v>9</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50">
-        <v>6800</v>
-      </c>
-      <c r="F50">
-        <v>200</v>
-      </c>
-      <c r="G50">
-        <v>9</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51">
-        <v>7200</v>
-      </c>
-      <c r="F51">
-        <v>200</v>
-      </c>
-      <c r="G51">
-        <v>9</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52">
-        <v>75000</v>
-      </c>
-      <c r="F52">
-        <v>200</v>
-      </c>
-      <c r="G52">
-        <v>21</v>
-      </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53">
-        <v>8000</v>
-      </c>
-      <c r="F53">
-        <v>200</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54">
-        <v>8200</v>
-      </c>
-      <c r="F54">
-        <v>200</v>
-      </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>20</v>
-      </c>
-      <c r="D55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55">
-        <v>8400</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56">
-        <v>8600</v>
-      </c>
-      <c r="F56">
-        <v>200</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57">
-        <v>85000</v>
-      </c>
-      <c r="F57">
-        <v>200</v>
-      </c>
-      <c r="G57">
-        <v>23</v>
-      </c>
-      <c r="H57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58">
-        <v>8800</v>
-      </c>
-      <c r="F58">
-        <v>200</v>
-      </c>
-      <c r="G58">
-        <v>11</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-      <c r="D59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59">
-        <v>9000</v>
-      </c>
-      <c r="F59">
-        <v>200</v>
-      </c>
-      <c r="G59">
-        <v>11</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60">
-        <v>9200</v>
-      </c>
-      <c r="F60">
-        <v>200</v>
-      </c>
-      <c r="G60">
-        <v>11</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61">
-        <v>9400</v>
-      </c>
-      <c r="F61">
-        <v>200</v>
-      </c>
-      <c r="G61">
-        <v>11</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62">
-        <v>100000</v>
-      </c>
-      <c r="F62">
-        <v>200</v>
-      </c>
-      <c r="G62">
-        <v>25</v>
-      </c>
-      <c r="H62">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63">
-        <v>10000</v>
-      </c>
-      <c r="F63">
-        <v>200</v>
-      </c>
-      <c r="G63">
-        <v>12</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64">
-        <v>11000</v>
-      </c>
-      <c r="F64">
-        <v>200</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65">
-        <v>12000</v>
-      </c>
-      <c r="F65">
-        <v>200</v>
-      </c>
-      <c r="G65">
-        <v>12</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66">
-        <v>13000</v>
-      </c>
-      <c r="F66">
-        <v>200</v>
-      </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67">
-        <v>120000</v>
-      </c>
-      <c r="F67">
-        <v>200</v>
-      </c>
-      <c r="G67">
-        <v>27</v>
-      </c>
-      <c r="H67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>20</v>
-      </c>
-      <c r="D68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68">
-        <v>14000</v>
-      </c>
-      <c r="F68">
-        <v>200</v>
-      </c>
-      <c r="G68">
-        <v>13</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>20</v>
-      </c>
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69">
-        <v>15000</v>
-      </c>
-      <c r="F69">
-        <v>200</v>
-      </c>
-      <c r="G69">
-        <v>13</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>20</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70">
-        <v>16000</v>
-      </c>
-      <c r="F70">
-        <v>200</v>
-      </c>
-      <c r="G70">
-        <v>13</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71">
-        <v>17000</v>
-      </c>
-      <c r="F71">
-        <v>200</v>
-      </c>
-      <c r="G71">
-        <v>13</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72">
-        <v>150000</v>
-      </c>
-      <c r="F72">
-        <v>200</v>
-      </c>
-      <c r="G72">
-        <v>30</v>
-      </c>
-      <c r="H72">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73">
-        <v>20000</v>
-      </c>
-      <c r="F73">
-        <v>200</v>
-      </c>
-      <c r="G73">
-        <v>14</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74">
-        <v>22000</v>
-      </c>
-      <c r="F74">
-        <v>200</v>
-      </c>
-      <c r="G74">
-        <v>14</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75">
-        <v>25000</v>
-      </c>
-      <c r="F75">
-        <v>200</v>
-      </c>
-      <c r="G75">
-        <v>14</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76">
-        <v>28000</v>
-      </c>
-      <c r="F76">
-        <v>200</v>
-      </c>
-      <c r="G76">
-        <v>14</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77">
-        <v>200000</v>
-      </c>
-      <c r="F77">
-        <v>200</v>
-      </c>
-      <c r="G77">
-        <v>33</v>
-      </c>
-      <c r="H77">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78">
-        <v>30000</v>
-      </c>
-      <c r="F78">
-        <v>200</v>
-      </c>
-      <c r="G78">
-        <v>15</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>77</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79">
-        <v>33000</v>
-      </c>
-      <c r="F79">
-        <v>200</v>
-      </c>
-      <c r="G79">
-        <v>15</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>78</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80">
-        <v>36000</v>
-      </c>
-      <c r="F80">
-        <v>200</v>
-      </c>
-      <c r="G80">
-        <v>15</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>79</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81">
-        <v>40000</v>
-      </c>
-      <c r="F81">
-        <v>200</v>
-      </c>
-      <c r="G81">
-        <v>15</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>80</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82">
-        <v>250000</v>
-      </c>
-      <c r="F82">
-        <v>200</v>
-      </c>
-      <c r="G82">
-        <v>36</v>
-      </c>
-      <c r="H82">
-        <v>20</v>
-      </c>
-      <c r="I82" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>81</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83">
-        <v>42000</v>
-      </c>
-      <c r="F83">
-        <v>200</v>
-      </c>
-      <c r="G83">
-        <v>16</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>82</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84">
-        <v>44000</v>
-      </c>
-      <c r="F84">
-        <v>200</v>
-      </c>
-      <c r="G84">
-        <v>16</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>83</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85">
-        <v>46000</v>
-      </c>
-      <c r="F85">
-        <v>200</v>
-      </c>
-      <c r="G85">
-        <v>16</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86">
-        <v>48000</v>
-      </c>
-      <c r="F86">
-        <v>200</v>
-      </c>
-      <c r="G86">
-        <v>16</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>85</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87">
-        <v>300000</v>
-      </c>
-      <c r="F87">
-        <v>200</v>
-      </c>
-      <c r="G87">
-        <v>40</v>
-      </c>
-      <c r="H87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>86</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88">
-        <v>50000</v>
-      </c>
-      <c r="F88">
-        <v>200</v>
-      </c>
-      <c r="G88">
-        <v>17</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>87</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89">
-        <v>52000</v>
-      </c>
-      <c r="F89">
-        <v>200</v>
-      </c>
-      <c r="G89">
-        <v>17</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>88</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90">
-        <v>54000</v>
-      </c>
-      <c r="F90">
-        <v>200</v>
-      </c>
-      <c r="G90">
-        <v>17</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>89</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91">
-        <v>56000</v>
-      </c>
-      <c r="F91">
-        <v>200</v>
-      </c>
-      <c r="G91">
-        <v>17</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92">
-        <v>400000</v>
-      </c>
-      <c r="F92">
-        <v>200</v>
-      </c>
-      <c r="G92">
-        <v>43</v>
-      </c>
-      <c r="H92">
-        <v>20</v>
-      </c>
-      <c r="I92" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>91</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93">
-        <v>58000</v>
-      </c>
-      <c r="F93">
-        <v>200</v>
-      </c>
-      <c r="G93">
-        <v>18</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>92</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94">
-        <v>60000</v>
-      </c>
-      <c r="F94">
-        <v>200</v>
-      </c>
-      <c r="G94">
-        <v>18</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>93</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95">
-        <v>62000</v>
-      </c>
-      <c r="F95">
-        <v>200</v>
-      </c>
-      <c r="G95">
-        <v>18</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>94</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96">
-        <v>64000</v>
-      </c>
-      <c r="F96">
-        <v>200</v>
-      </c>
-      <c r="G96">
-        <v>18</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>95</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97">
-        <v>450000</v>
-      </c>
-      <c r="F97">
-        <v>200</v>
-      </c>
-      <c r="G97">
-        <v>50</v>
-      </c>
-      <c r="H97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98">
-        <v>70000</v>
-      </c>
-      <c r="F98">
-        <v>200</v>
-      </c>
-      <c r="G98">
-        <v>20</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827DD813-BFF3-4EF2-8F97-5A3A375613A5}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A1" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="54">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="54">
-        <v>0.08</v>
-      </c>
-      <c r="D7" s="54">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ACB7A5-3678-45F3-88B9-51B8D98A1F5E}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="51">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
-        <v>0</v>
-      </c>
-      <c r="E2" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="51">
-        <v>1</v>
-      </c>
-      <c r="B3" s="52">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A4" s="51">
-        <v>2</v>
-      </c>
-      <c r="B4" s="52">
-        <v>2</v>
-      </c>
-      <c r="C4" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A5" s="51">
-        <v>3</v>
-      </c>
-      <c r="B5" s="52">
-        <v>3</v>
-      </c>
-      <c r="C5" s="53">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A6" s="51">
-        <v>4</v>
-      </c>
-      <c r="B6" s="52">
-        <v>4</v>
-      </c>
-      <c r="C6" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="53">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A7" s="51">
-        <v>5</v>
-      </c>
-      <c r="B7" s="52">
-        <v>5</v>
-      </c>
-      <c r="C7" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="53">
-        <v>0.35</v>
-      </c>
-      <c r="E7" s="53">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A8" s="51">
-        <v>6</v>
-      </c>
-      <c r="B8" s="52">
-        <v>6</v>
-      </c>
-      <c r="C8" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="53">
-        <v>0.35</v>
-      </c>
-      <c r="E8" s="53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A9" s="51">
-        <v>7</v>
-      </c>
-      <c r="B9" s="52">
-        <v>7</v>
-      </c>
-      <c r="C9" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A10" s="51">
-        <v>8</v>
-      </c>
-      <c r="B10" s="52">
-        <v>8</v>
-      </c>
-      <c r="C10" s="53">
-        <v>0.35</v>
-      </c>
-      <c r="D10" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A11" s="51">
-        <v>9</v>
-      </c>
-      <c r="B11" s="52">
-        <v>9</v>
-      </c>
-      <c r="C11" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A12" s="51">
-        <v>10</v>
-      </c>
-      <c r="B12" s="52">
-        <v>10</v>
-      </c>
-      <c r="C12" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="53">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB354F0-D6CF-420F-84ED-8942F6E6D0B2}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A1" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="54">
-        <v>1</v>
-      </c>
-      <c r="E2" s="54">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="54">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="54">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="54">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="54">
-        <v>1.3</v>
-      </c>
-      <c r="E5" s="54">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="54">
-        <v>1.4</v>
-      </c>
-      <c r="E6" s="54">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="54">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="54">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>90</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="54">
-        <v>1.6</v>
-      </c>
-      <c r="E8" s="54">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>95</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39502,49 +38607,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -39560,27 +38665,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -39588,7 +38693,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -39604,41 +38709,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -39654,41 +38759,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -39699,16 +38804,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -39724,7 +38829,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -39740,45 +38845,45 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>266</v>
-      </c>
       <c r="C6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -39794,45 +38899,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>266</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -39848,7 +38953,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -39864,7 +38969,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -39875,50 +38980,50 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -39929,50 +39034,50 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -39988,7 +39093,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -39996,13 +39101,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -40010,7 +39115,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -40026,49 +39131,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>

--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA91FE58-7F44-49B2-B115-39C48A822900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFE251-3427-412A-BEAF-CF1515F179CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12660" yWindow="3330" windowWidth="10155" windowHeight="6000" activeTab="4" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="타워" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="330">
   <si>
     <t>IDEX</t>
   </si>
@@ -728,10 +728,6 @@
   </si>
   <si>
     <t>최대 4명까지 공격합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 4명까지 공격합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1993,6 +1989,26 @@
   <si>
     <t>라운드 시작시 1~5번째 공격까지 치명타가 터집니다</t>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석을 추가로 하나  얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3018,9 +3034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B0D2FC-495B-49A9-AEEA-1645B02C8A72}">
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="A2:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3029,11 +3045,11 @@
     <col min="9" max="9" width="55.25" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="1.25" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
     <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="59" customFormat="1" ht="26.25" thickBot="1">
+    <row r="1" spans="1:30" s="59" customFormat="1" ht="17.25" thickBot="1">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -3062,16 +3078,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
@@ -3091,7 +3107,7 @@
       <c r="AC1" s="58"/>
       <c r="AD1" s="58"/>
     </row>
-    <row r="2" spans="1:30" ht="48.75" thickBot="1">
+    <row r="2" spans="1:30" ht="17.25" thickBot="1">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -3124,10 +3140,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="2"/>
@@ -3148,7 +3164,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="24.75" thickBot="1">
+    <row r="3" spans="1:30" ht="17.25" thickBot="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -3181,10 +3197,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="4"/>
@@ -3205,7 +3221,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="96.75" thickBot="1">
+    <row r="4" spans="1:30" ht="24.75" thickBot="1">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -3238,10 +3254,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="3"/>
@@ -3262,7 +3278,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="37.5" thickBot="1">
+    <row r="5" spans="1:30" ht="17.25" thickBot="1">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -3295,10 +3311,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="2"/>
@@ -3319,7 +3335,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="24.75" thickBot="1">
+    <row r="6" spans="1:30" ht="17.25" thickBot="1">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -3352,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>33</v>
@@ -3376,7 +3392,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" ht="24.75" thickBot="1">
+    <row r="7" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -3409,7 +3425,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>34</v>
@@ -3433,7 +3449,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="27.75" thickBot="1">
+    <row r="8" spans="1:30" ht="17.25" thickBot="1">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -3459,14 +3475,14 @@
         <v>50</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>15</v>
@@ -3490,7 +3506,7 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
     </row>
-    <row r="9" spans="1:30" ht="36.75" thickBot="1">
+    <row r="9" spans="1:30" ht="17.25" thickBot="1">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -3523,10 +3539,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
@@ -3547,7 +3563,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="36.75" thickBot="1">
+    <row r="10" spans="1:30" ht="17.25" thickBot="1">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -3580,13 +3596,13 @@
         <v>13.636363636363635</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -3606,7 +3622,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="27.75" thickBot="1">
+    <row r="11" spans="1:30" ht="17.25" thickBot="1">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -3639,10 +3655,10 @@
         <v>12.5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="2"/>
@@ -3663,7 +3679,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="41.25" thickBot="1">
+    <row r="12" spans="1:30" ht="24.75" thickBot="1">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -3689,17 +3705,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>21.428571428571431</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
@@ -3720,7 +3736,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
+    <row r="13" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -3753,10 +3769,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="7"/>
@@ -3777,7 +3793,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="24.75" thickBot="1">
+    <row r="14" spans="1:30" ht="17.25" thickBot="1">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -3810,7 +3826,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>18</v>
@@ -3834,7 +3850,7 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="48.75" thickBot="1">
+    <row r="15" spans="1:30" ht="24.75" thickBot="1">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -3860,14 +3876,14 @@
         <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
@@ -3891,7 +3907,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="41.25" thickBot="1">
+    <row r="16" spans="1:30" ht="17.25" thickBot="1">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -3924,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="27">
         <v>1.5</v>
@@ -3950,7 +3966,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" ht="36.75" thickBot="1">
+    <row r="17" spans="1:30" ht="17.25" thickBot="1">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -3976,14 +3992,14 @@
         <v>50</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -4040,7 +4056,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>14</v>
@@ -4064,7 +4080,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="9" customFormat="1" ht="60.75" thickBot="1">
+    <row r="19" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A19" s="31">
         <v>17</v>
       </c>
@@ -4090,17 +4106,17 @@
         <v>50</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="7"/>
@@ -4121,7 +4137,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="27.75" thickBot="1">
+    <row r="20" spans="1:30" ht="17.25" thickBot="1">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -4154,10 +4170,10 @@
         <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M20" s="38">
         <v>1.5</v>
@@ -4180,7 +4196,7 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
     </row>
-    <row r="21" spans="1:30" ht="24.75" thickBot="1">
+    <row r="21" spans="1:30" ht="17.25" thickBot="1">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -4213,10 +4229,10 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="2"/>
@@ -4237,7 +4253,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="27.75" thickBot="1">
+    <row r="22" spans="1:30" ht="17.25" thickBot="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -4270,10 +4286,10 @@
         <v>93.75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="2"/>
@@ -4294,7 +4310,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" ht="60.75" thickBot="1">
+    <row r="23" spans="1:30" ht="17.25" thickBot="1">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -4320,17 +4336,17 @@
         <v>50</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J23" s="16">
         <f>(D23/E23) *2</f>
         <v>108.33333333333334</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
@@ -4351,7 +4367,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="48.75" thickBot="1">
+    <row r="24" spans="1:30" ht="17.25" thickBot="1">
       <c r="A24" s="22">
         <v>22</v>
       </c>
@@ -4384,10 +4400,10 @@
         <v>110</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
@@ -4408,7 +4424,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" s="9" customFormat="1" ht="36.75" thickBot="1">
+    <row r="25" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A25" s="31">
         <v>23</v>
       </c>
@@ -4434,17 +4450,17 @@
         <v>50</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="7"/>
@@ -4465,7 +4481,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="36.75" thickBot="1">
+    <row r="26" spans="1:30" ht="17.25" thickBot="1">
       <c r="A26" s="29">
         <v>24</v>
       </c>
@@ -4498,7 +4514,7 @@
         <v>216.66666666666669</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>17</v>
@@ -4522,7 +4538,7 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:30" ht="68.25" thickBot="1">
+    <row r="27" spans="1:30" ht="24.75" thickBot="1">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -4548,17 +4564,17 @@
         <v>50</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J27" s="16">
         <f>D27/E27*2</f>
         <v>213.33333333333334</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="2"/>
@@ -4579,7 +4595,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" ht="84.75" thickBot="1">
+    <row r="28" spans="1:30" ht="24.75" thickBot="1">
       <c r="A28" s="22">
         <v>26</v>
       </c>
@@ -4605,14 +4621,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J28" s="16">
         <f>D28/E28*4</f>
         <v>240</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>11</v>
@@ -4636,7 +4652,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" ht="48.75" thickBot="1">
+    <row r="29" spans="1:30" ht="17.25" thickBot="1">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -4662,20 +4678,20 @@
         <v>50</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J29" s="16">
         <f>D29/E29 * 10</f>
         <v>125</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
@@ -4695,7 +4711,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="24.75" thickBot="1">
+    <row r="30" spans="1:30" ht="17.25" thickBot="1">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -4728,10 +4744,10 @@
         <v>214.28571428571431</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
@@ -4752,7 +4768,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" s="9" customFormat="1" ht="27.75" thickBot="1">
+    <row r="31" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A31" s="31">
         <v>29</v>
       </c>
@@ -4785,10 +4801,10 @@
         <v>100</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="7"/>
@@ -4809,7 +4825,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="68.25" thickBot="1">
+    <row r="32" spans="1:30" ht="17.25" thickBot="1">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -4842,7 +4858,7 @@
         <v>500</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>19</v>
@@ -4866,7 +4882,7 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="60.75" thickBot="1">
+    <row r="33" spans="1:30" ht="17.25" thickBot="1">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -4892,17 +4908,17 @@
         <v>50</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
@@ -4923,7 +4939,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" ht="36.75" thickBot="1">
+    <row r="34" spans="1:30" ht="17.25" thickBot="1">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -4956,10 +4972,10 @@
         <v>259</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="2"/>
@@ -4980,7 +4996,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" ht="60.75" thickBot="1">
+    <row r="35" spans="1:30" ht="17.25" thickBot="1">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -5006,14 +5022,14 @@
         <v>50</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J35" s="16">
         <f>D35/E35 *3</f>
         <v>465</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>39</v>
@@ -5037,7 +5053,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" ht="54.75" thickBot="1">
+    <row r="36" spans="1:30" ht="24.75" thickBot="1">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -5063,17 +5079,17 @@
         <v>50</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
@@ -5094,7 +5110,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
+    <row r="37" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A37" s="31">
         <v>35</v>
       </c>
@@ -5120,14 +5136,14 @@
         <v>100</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J37" s="35">
         <f>D37/E37 * 3</f>
         <v>499.5</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>40</v>
@@ -5151,7 +5167,7 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="1:30" ht="24.75" thickBot="1">
+    <row r="38" spans="1:30" ht="17.25" thickBot="1">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -5177,17 +5193,17 @@
         <v>50</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L38" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="5"/>
@@ -5208,7 +5224,7 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:30" ht="81.75" thickBot="1">
+    <row r="39" spans="1:30" ht="27.75" thickBot="1">
       <c r="A39" s="22">
         <v>37</v>
       </c>
@@ -5241,7 +5257,7 @@
         <v>1000</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>22</v>
@@ -5265,7 +5281,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="54.75" thickBot="1">
+    <row r="40" spans="1:30" ht="17.25" thickBot="1">
       <c r="A40" s="22">
         <v>38</v>
       </c>
@@ -5291,14 +5307,14 @@
         <v>50</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>41</v>
@@ -5322,7 +5338,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="84.75" thickBot="1">
+    <row r="41" spans="1:30" ht="24.75" thickBot="1">
       <c r="A41" s="22">
         <v>39</v>
       </c>
@@ -5348,14 +5364,14 @@
         <v>50</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>21</v>
@@ -5379,7 +5395,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" ht="73.5" thickBot="1">
+    <row r="42" spans="1:30" ht="25.5" thickBot="1">
       <c r="A42" s="22">
         <v>40</v>
       </c>
@@ -5412,7 +5428,7 @@
         <v>360</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L42" s="39" t="s">
         <v>20</v>
@@ -5436,7 +5452,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" s="9" customFormat="1" ht="48.75" thickBot="1">
+    <row r="43" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A43" s="31">
         <v>41</v>
       </c>
@@ -5469,10 +5485,10 @@
         <v>1036.6666666666667</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="7"/>
@@ -5493,7 +5509,7 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="1:30" ht="36.75" thickBot="1">
+    <row r="44" spans="1:30" ht="17.25" thickBot="1">
       <c r="A44" s="29">
         <v>42</v>
       </c>
@@ -5504,7 +5520,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="23">
-        <v>1900</v>
+        <v>2280</v>
       </c>
       <c r="E44" s="23">
         <v>2</v>
@@ -5519,14 +5535,14 @@
         <v>50</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1140</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -5550,7 +5566,7 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:30" ht="36.75" thickBot="1">
+    <row r="45" spans="1:30" ht="17.25" thickBot="1">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -5561,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="23">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="E45" s="23">
         <v>0.5</v>
@@ -5580,10 +5596,10 @@
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>1998</v>
+        <v>2398</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>27</v>
@@ -5607,7 +5623,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" ht="41.25" thickBot="1">
+    <row r="46" spans="1:30" ht="17.25" thickBot="1">
       <c r="A46" s="22">
         <v>44</v>
       </c>
@@ -5618,7 +5634,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="23">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="23">
         <v>0.5</v>
@@ -5637,10 +5653,10 @@
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>1776</v>
+        <v>2000</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>42</v>
@@ -5664,7 +5680,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="27.75" thickBot="1">
+    <row r="47" spans="1:30" ht="17.25" thickBot="1">
       <c r="A47" s="22">
         <v>45</v>
       </c>
@@ -5675,7 +5691,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="23">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="E47" s="23">
         <v>0.5</v>
@@ -5690,17 +5706,17 @@
         <v>50</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>666</v>
+        <v>798</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="2"/>
@@ -5721,7 +5737,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" ht="54.75" thickBot="1">
+    <row r="48" spans="1:30" ht="27.75" thickBot="1">
       <c r="A48" s="22">
         <v>46</v>
       </c>
@@ -5732,7 +5748,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="23">
-        <v>1666</v>
+        <v>1999</v>
       </c>
       <c r="E48" s="23">
         <v>0.8</v>
@@ -5747,14 +5763,14 @@
         <v>50</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
-        <v>2082.5</v>
+        <v>2498.75</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L48" s="36" t="s">
         <v>23</v>
@@ -5778,7 +5794,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" s="9" customFormat="1" ht="68.25" thickBot="1">
+    <row r="49" spans="1:30" s="9" customFormat="1" ht="17.25" thickBot="1">
       <c r="A49" s="31">
         <v>47</v>
       </c>
@@ -5789,7 +5805,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="32">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="32">
         <v>3</v>
@@ -5804,17 +5820,17 @@
         <v>50</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
@@ -5835,7 +5851,7 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
     </row>
-    <row r="50" spans="1:30" ht="60.75" thickBot="1">
+    <row r="50" spans="1:30" ht="17.25" thickBot="1">
       <c r="A50" s="29">
         <v>48</v>
       </c>
@@ -5868,10 +5884,10 @@
         <v>178.57142857142858</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="5"/>
@@ -5892,7 +5908,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:30" ht="24.75" thickBot="1">
+    <row r="51" spans="1:30" ht="17.25" thickBot="1">
       <c r="A51" s="22">
         <v>49</v>
       </c>
@@ -5900,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" s="23">
         <v>44</v>
@@ -5925,10 +5941,10 @@
         <v>440</v>
       </c>
       <c r="K51" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="L51" s="44" t="s">
         <v>273</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>274</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
@@ -5949,7 +5965,7 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" ht="54.75" thickBot="1">
+    <row r="52" spans="1:30" ht="17.25" thickBot="1">
       <c r="A52" s="22">
         <v>50</v>
       </c>
@@ -5975,17 +5991,17 @@
         <v>50</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
@@ -6006,7 +6022,7 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" ht="41.25" thickBot="1">
+    <row r="53" spans="1:30" ht="17.25" thickBot="1">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -6032,17 +6048,17 @@
         <v>50</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -6062,7 +6078,7 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" ht="48.75" thickBot="1">
+    <row r="54" spans="1:30" ht="17.25" thickBot="1">
       <c r="A54" s="22">
         <v>52</v>
       </c>
@@ -6095,10 +6111,10 @@
         <v>44</v>
       </c>
       <c r="K54" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -6118,7 +6134,7 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" ht="24.75" thickBot="1">
+    <row r="55" spans="1:30" ht="17.25" thickBot="1">
       <c r="A55" s="22">
         <v>53</v>
       </c>
@@ -6151,10 +6167,10 @@
         <v>250</v>
       </c>
       <c r="K55" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>284</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6174,7 +6190,7 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" ht="72.75" thickBot="1">
+    <row r="56" spans="1:30" ht="24.75" thickBot="1">
       <c r="A56" s="22">
         <v>54</v>
       </c>
@@ -6207,10 +6223,10 @@
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -6230,7 +6246,7 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" ht="36.75" thickBot="1">
+    <row r="57" spans="1:30" ht="17.25" thickBot="1">
       <c r="A57" s="22">
         <v>55</v>
       </c>
@@ -6241,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="23">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="23">
         <v>2</v>
@@ -6260,13 +6276,13 @@
       </c>
       <c r="J57" s="23">
         <f t="shared" ref="J57:J67" si="1">D57/E57</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6286,7 +6302,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" ht="60.75" thickBot="1">
+    <row r="58" spans="1:30" ht="17.25" thickBot="1">
       <c r="A58" s="22">
         <v>56</v>
       </c>
@@ -6297,7 +6313,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="23">
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="E58" s="23">
         <v>0.7</v>
@@ -6316,13 +6332,13 @@
       </c>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>1427.1428571428573</v>
+        <v>1712.8571428571429</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -6342,7 +6358,7 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" ht="36.75" thickBot="1">
+    <row r="59" spans="1:30" ht="17.25" thickBot="1">
       <c r="A59" s="22">
         <v>57</v>
       </c>
@@ -6368,17 +6384,17 @@
         <v>50</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6424,14 +6440,14 @@
         <v>50</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J60" s="23">
         <f>D60/E60 * 5</f>
         <v>500</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6477,14 +6493,14 @@
         <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
         <v>88.666666666666671</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -6508,18 +6524,20 @@
       <c r="A62" s="22">
         <v>60</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="23">
+        <v>2</v>
+      </c>
       <c r="C62" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="23">
-        <v>2000</v>
+        <v>13</v>
       </c>
       <c r="E62" s="23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F62" s="23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="23">
         <v>30</v>
@@ -6527,9 +6545,15 @@
       <c r="H62" s="23">
         <v>50</v>
       </c>
+      <c r="I62" t="s">
+        <v>329</v>
+      </c>
       <c r="J62" s="23">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>26</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>328</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -6865,7 +6889,7 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="1:30" ht="185.25" thickBot="1">
+    <row r="99" spans="1:30" ht="38.25" thickBot="1">
       <c r="A99" s="10"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -6931,7 +6955,7 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
     </row>
-    <row r="101" spans="1:30" ht="49.5" thickBot="1">
+    <row r="101" spans="1:30" ht="17.25" thickBot="1">
       <c r="A101" s="10"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -6964,7 +6988,7 @@
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
     </row>
-    <row r="102" spans="1:30" ht="25.5" thickBot="1">
+    <row r="102" spans="1:30" ht="17.25" thickBot="1">
       <c r="A102" s="10"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -6999,7 +7023,7 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="1:30" ht="100.5" thickBot="1">
+    <row r="103" spans="1:30" ht="26.25" thickBot="1">
       <c r="A103" s="10"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7032,7 +7056,7 @@
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="1:30" ht="61.5" thickBot="1">
+    <row r="104" spans="1:30" ht="17.25" thickBot="1">
       <c r="A104" s="10"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -7067,7 +7091,7 @@
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
     </row>
-    <row r="105" spans="1:30" ht="61.5" thickBot="1">
+    <row r="105" spans="1:30" ht="17.25" thickBot="1">
       <c r="A105" s="10"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -7286,7 +7310,7 @@
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
     </row>
-    <row r="112" spans="1:30" ht="149.25" thickBot="1">
+    <row r="112" spans="1:30" ht="26.25" thickBot="1">
       <c r="A112" s="10"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -34591,28 +34615,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>256</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1">
@@ -34623,7 +34647,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="54">
         <v>1</v>
@@ -34648,7 +34672,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="54">
         <v>1.1000000000000001</v>
@@ -34673,7 +34697,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="54">
         <v>1.2</v>
@@ -34698,7 +34722,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="54">
         <v>1.3</v>
@@ -34723,7 +34747,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="54">
         <v>1.4</v>
@@ -34748,7 +34772,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="54">
         <v>1.5</v>
@@ -34787,16 +34811,16 @@
         <v>43</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>246</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -35007,13 +35031,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>249</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -35110,9 +35134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F6822A-A25E-4D11-8875-C69EABB0A644}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="A2:G98"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="A2:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35125,25 +35149,25 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>218</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -35296,7 +35320,7 @@
         <v>200</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -35322,7 +35346,7 @@
         <v>200</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -35348,7 +35372,7 @@
         <v>200</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -35374,7 +35398,7 @@
         <v>200</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -35400,7 +35424,7 @@
         <v>200</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -35426,7 +35450,7 @@
         <v>200</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -35452,7 +35476,7 @@
         <v>200</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -35478,7 +35502,7 @@
         <v>200</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -35504,7 +35528,7 @@
         <v>200</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -35530,7 +35554,7 @@
         <v>200</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -35556,7 +35580,7 @@
         <v>200</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -35582,7 +35606,7 @@
         <v>200</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -35608,7 +35632,7 @@
         <v>200</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -35634,7 +35658,7 @@
         <v>200</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -35660,7 +35684,7 @@
         <v>200</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -35686,7 +35710,7 @@
         <v>200</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -35712,7 +35736,7 @@
         <v>200</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -35738,7 +35762,7 @@
         <v>200</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -35764,7 +35788,7 @@
         <v>200</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -35790,7 +35814,7 @@
         <v>200</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -35810,13 +35834,13 @@
         <v>46</v>
       </c>
       <c r="E27">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="F27">
         <v>200</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>20</v>
@@ -35842,7 +35866,7 @@
         <v>200</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -35868,7 +35892,7 @@
         <v>200</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -35894,7 +35918,7 @@
         <v>200</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -35920,7 +35944,7 @@
         <v>200</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -35940,13 +35964,13 @@
         <v>46</v>
       </c>
       <c r="E32">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="F32">
         <v>200</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H32">
         <v>20</v>
@@ -35972,7 +35996,7 @@
         <v>200</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -35998,7 +36022,7 @@
         <v>200</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -36024,7 +36048,7 @@
         <v>200</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -36050,7 +36074,7 @@
         <v>200</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -36070,13 +36094,13 @@
         <v>46</v>
       </c>
       <c r="E37">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F37">
         <v>200</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>20</v>
@@ -36102,7 +36126,7 @@
         <v>200</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -36128,7 +36152,7 @@
         <v>200</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -36154,7 +36178,7 @@
         <v>200</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -36180,7 +36204,7 @@
         <v>200</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -36200,13 +36224,13 @@
         <v>46</v>
       </c>
       <c r="E42">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F42">
         <v>200</v>
       </c>
       <c r="G42">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>20</v>
@@ -36232,7 +36256,7 @@
         <v>200</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -36258,7 +36282,7 @@
         <v>200</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -36284,7 +36308,7 @@
         <v>200</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -36310,7 +36334,7 @@
         <v>200</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -36330,13 +36354,13 @@
         <v>46</v>
       </c>
       <c r="E47">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F47">
         <v>200</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H47">
         <v>20</v>
@@ -36362,7 +36386,7 @@
         <v>200</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -36388,7 +36412,7 @@
         <v>200</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -36414,7 +36438,7 @@
         <v>200</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -36440,7 +36464,7 @@
         <v>200</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -36460,19 +36484,19 @@
         <v>46</v>
       </c>
       <c r="E52">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="F52">
         <v>200</v>
       </c>
       <c r="G52">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H52">
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -36495,7 +36519,7 @@
         <v>200</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -36521,7 +36545,7 @@
         <v>200</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -36547,7 +36571,7 @@
         <v>200</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -36573,7 +36597,7 @@
         <v>200</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -36593,13 +36617,13 @@
         <v>46</v>
       </c>
       <c r="E57">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="F57">
         <v>200</v>
       </c>
       <c r="G57">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H57">
         <v>20</v>
@@ -36625,7 +36649,7 @@
         <v>200</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -36651,7 +36675,7 @@
         <v>200</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -36677,7 +36701,7 @@
         <v>200</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -36697,13 +36721,13 @@
         <v>46</v>
       </c>
       <c r="E61">
-        <v>84000</v>
+        <v>8400</v>
       </c>
       <c r="F61">
         <v>200</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -36723,19 +36747,19 @@
         <v>46</v>
       </c>
       <c r="E62">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="F62">
         <v>200</v>
       </c>
       <c r="G62">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -36758,7 +36782,7 @@
         <v>200</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -36784,7 +36808,7 @@
         <v>200</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -36810,7 +36834,7 @@
         <v>200</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -36836,7 +36860,7 @@
         <v>200</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -36856,13 +36880,13 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F67">
         <v>200</v>
       </c>
       <c r="G67">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H67">
         <v>20</v>
@@ -36888,7 +36912,7 @@
         <v>200</v>
       </c>
       <c r="G68">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -36914,7 +36938,7 @@
         <v>200</v>
       </c>
       <c r="G69">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -36940,7 +36964,7 @@
         <v>200</v>
       </c>
       <c r="G70">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -36966,7 +36990,7 @@
         <v>200</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -36986,19 +37010,19 @@
         <v>46</v>
       </c>
       <c r="E72">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="F72">
         <v>200</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H72">
         <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -37021,7 +37045,7 @@
         <v>200</v>
       </c>
       <c r="G73">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -37047,7 +37071,7 @@
         <v>200</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -37073,7 +37097,7 @@
         <v>200</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -37099,7 +37123,7 @@
         <v>200</v>
       </c>
       <c r="G76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -37119,19 +37143,19 @@
         <v>46</v>
       </c>
       <c r="E77">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="F77">
         <v>200</v>
       </c>
       <c r="G77">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H77">
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -37154,7 +37178,7 @@
         <v>200</v>
       </c>
       <c r="G78">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -37180,7 +37204,7 @@
         <v>200</v>
       </c>
       <c r="G79">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -37206,7 +37230,7 @@
         <v>200</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -37232,7 +37256,7 @@
         <v>200</v>
       </c>
       <c r="G81">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -37252,19 +37276,19 @@
         <v>46</v>
       </c>
       <c r="E82">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="F82">
         <v>200</v>
       </c>
       <c r="G82">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H82">
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -37287,7 +37311,7 @@
         <v>200</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -37313,7 +37337,7 @@
         <v>200</v>
       </c>
       <c r="G84">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -37339,7 +37363,7 @@
         <v>200</v>
       </c>
       <c r="G85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -37365,7 +37389,7 @@
         <v>200</v>
       </c>
       <c r="G86">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -37385,13 +37409,13 @@
         <v>46</v>
       </c>
       <c r="E87">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="F87">
         <v>200</v>
       </c>
       <c r="G87">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H87">
         <v>20</v>
@@ -37417,7 +37441,7 @@
         <v>200</v>
       </c>
       <c r="G88">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -37443,7 +37467,7 @@
         <v>200</v>
       </c>
       <c r="G89">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -37469,7 +37493,7 @@
         <v>200</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -37495,7 +37519,7 @@
         <v>200</v>
       </c>
       <c r="G91">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -37515,19 +37539,19 @@
         <v>46</v>
       </c>
       <c r="E92">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F92">
         <v>200</v>
       </c>
       <c r="G92">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H92">
         <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -37550,7 +37574,7 @@
         <v>200</v>
       </c>
       <c r="G93">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -37576,7 +37600,7 @@
         <v>200</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -37602,7 +37626,7 @@
         <v>200</v>
       </c>
       <c r="G95">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -37628,7 +37652,7 @@
         <v>200</v>
       </c>
       <c r="G96">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -37648,13 +37672,13 @@
         <v>46</v>
       </c>
       <c r="E97">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="F97">
         <v>200</v>
       </c>
       <c r="G97">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H97">
         <v>20</v>
@@ -37680,7 +37704,7 @@
         <v>200</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -37699,7 +37723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -37722,22 +37746,22 @@
         <v>45</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>77</v>
-      </c>
       <c r="I1" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -37766,7 +37790,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
@@ -37780,22 +37804,22 @@
         <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="17">
         <v>0</v>
@@ -37812,22 +37836,22 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -37844,22 +37868,22 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -37876,22 +37900,22 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>94</v>
       </c>
-      <c r="H6" t="s">
-        <v>95</v>
-      </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -37908,22 +37932,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -37940,25 +37964,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>106</v>
       </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37972,22 +37996,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>157</v>
       </c>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -38004,22 +38028,22 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>111</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>113</v>
       </c>
-      <c r="H10" t="s">
-        <v>114</v>
-      </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -38036,19 +38060,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
         <v>115</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>118</v>
-      </c>
-      <c r="H11" t="s">
-        <v>119</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -38068,22 +38092,22 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>122</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -38100,22 +38124,22 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" t="s">
         <v>299</v>
       </c>
-      <c r="E13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" t="s">
-        <v>300</v>
-      </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -38132,22 +38156,22 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
         <v>129</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>130</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>132</v>
       </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -38164,22 +38188,22 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>136</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>137</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>138</v>
       </c>
-      <c r="H15" t="s">
-        <v>139</v>
-      </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -38196,22 +38220,22 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" t="s">
         <v>275</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>276</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>277</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>278</v>
       </c>
-      <c r="H16" t="s">
-        <v>279</v>
-      </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -38228,25 +38252,25 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
         <v>142</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>143</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>144</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>145</v>
       </c>
-      <c r="H17" t="s">
-        <v>146</v>
-      </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
@@ -38260,22 +38284,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" t="s">
         <v>184</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" t="s">
-        <v>185</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -38292,25 +38316,25 @@
         <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>194</v>
-      </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -38324,22 +38348,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
         <v>196</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>197</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>198</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>199</v>
       </c>
-      <c r="H20" t="s">
-        <v>200</v>
-      </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -38356,22 +38380,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>165</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>167</v>
       </c>
-      <c r="H21" t="s">
-        <v>168</v>
-      </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -38388,22 +38412,22 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
         <v>152</v>
       </c>
-      <c r="G22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" t="s">
-        <v>153</v>
-      </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -38434,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
@@ -38442,7 +38466,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
@@ -38450,7 +38474,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1">
@@ -38458,7 +38482,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1">
@@ -38466,7 +38490,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1">
@@ -38474,7 +38498,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1">
@@ -38482,7 +38506,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1">
@@ -38490,7 +38514,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1">
@@ -38498,7 +38522,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1">
@@ -38506,7 +38530,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1">
@@ -38514,7 +38538,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1">
@@ -38522,7 +38546,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -38530,7 +38554,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1">
@@ -38538,7 +38562,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1">
@@ -38546,7 +38570,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1">
@@ -38554,7 +38578,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1">
@@ -38562,7 +38586,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
@@ -38570,7 +38594,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
@@ -38578,7 +38602,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
@@ -38586,7 +38610,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -38607,49 +38631,49 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -38665,27 +38689,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -38693,7 +38717,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -38709,41 +38733,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -38759,41 +38783,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -38804,16 +38828,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -38829,7 +38853,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -38845,45 +38869,45 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>265</v>
-      </c>
       <c r="C6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -38899,45 +38923,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>265</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -38953,7 +38977,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -38969,7 +38993,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -38980,50 +39004,50 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -39034,50 +39058,50 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -39093,7 +39117,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -39101,13 +39125,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -39115,7 +39139,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -39131,49 +39155,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>

--- a/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
+++ b/[작업폴더]RandomTowerDefence/Legend RTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Documents\GitHub\Unity_Game_Project_1\[작업폴더]RandomTowerDefence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFE251-3427-412A-BEAF-CF1515F179CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B0998-F2BA-41C3-8B70-FF8D713D0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{C69005FB-6E21-4B13-B11A-8C988963CC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="타워" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="퀄리티" sheetId="5" r:id="rId4"/>
     <sheet name="몬스터" sheetId="4" r:id="rId5"/>
     <sheet name="아이템스킬" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
-    <sheet name="지형" sheetId="8" r:id="rId8"/>
+    <sheet name="지형" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="304">
   <si>
     <t>IDEX</t>
   </si>
@@ -560,88 +559,6 @@
   </si>
   <si>
     <t>주변 적들의 이동속도 15% 감소 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확률로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스턴을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입힙니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1412,10 +1329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,18 +1612,6 @@
     <t>타일</t>
   </si>
   <si>
-    <t>▲</t>
-  </si>
-  <si>
-    <t>▶</t>
-  </si>
-  <si>
-    <t>▼</t>
-  </si>
-  <si>
-    <t>◀</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1928,66 +1829,6 @@
   <si>
     <t>6난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~1.5초마다 파이어볼이 나갑니다Damage : 공격력80%</t>
-  </si>
-  <si>
-    <t>사거리가 1~5만큼 증가합니다</t>
-  </si>
-  <si>
-    <t>공격력 +10~50%</t>
-  </si>
-  <si>
-    <t>치명타% +10~50%</t>
-  </si>
-  <si>
-    <t>치명타 데미지+ 15~50%</t>
-  </si>
-  <si>
-    <t>공격속도 + 10~50%</t>
-  </si>
-  <si>
-    <t>첫대상 스턴 1초 추가 데미지 공격력 +10~50%</t>
-  </si>
-  <si>
-    <t>6~1번째 공격마다 치명타 무조건들어감</t>
-  </si>
-  <si>
-    <t>타켓된 한명 방어-1 1~5초간</t>
-  </si>
-  <si>
-    <t>라운드 끝날때마다 공격력 + 1~5%</t>
-  </si>
-  <si>
-    <t>5~1의배수 라운드 끝날때마다 Gold +1</t>
-  </si>
-  <si>
-    <t>유닛을 죽일경우 20~100%확률로 Gold + 1</t>
-  </si>
-  <si>
-    <t>스턴 걸린 상대에게 공격시 50~100% 추가 데미지</t>
-  </si>
-  <si>
-    <t>타켓된 한명 이동속도감소 10% 1~5초간</t>
-  </si>
-  <si>
-    <t>10~50%확률로 방어를 무시합니다</t>
-  </si>
-  <si>
-    <t>3초마다 미사일검이 나갑니다Damage : 공격력40~90%</t>
-  </si>
-  <si>
-    <t>3초마다 사정거리내 적을 번개마법으로 공격합니다 Damage : 공격력35~90%</t>
-  </si>
-  <si>
-    <t>7번째 공격마다 공격력 1~5%상승</t>
-  </si>
-  <si>
-    <t>공격시 0.5초뒤에 한번더 데미지를 입힙니다 Damage : 공격력 20~80%</t>
-  </si>
-  <si>
-    <t>라운드 시작시 1~5번째 공격까지 치명타가 터집니다</t>
   </si>
   <si>
     <r>
@@ -3034,9 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B0D2FC-495B-49A9-AEEA-1645B02C8A72}">
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="A2:I62"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="A2:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3045,7 +2886,7 @@
     <col min="9" max="9" width="55.25" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="0.375" customWidth="1"/>
     <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3078,16 +2919,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>206</v>
-      </c>
       <c r="L1" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
@@ -3140,10 +2981,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="2"/>
@@ -3197,10 +3038,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="4"/>
@@ -3254,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="3"/>
@@ -3311,10 +3152,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="2"/>
@@ -3368,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>33</v>
@@ -3425,7 +3266,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>34</v>
@@ -3475,14 +3316,14 @@
         <v>50</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>15</v>
@@ -3539,10 +3380,10 @@
         <v>25</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
@@ -3596,13 +3437,13 @@
         <v>13.636363636363635</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -3655,10 +3496,10 @@
         <v>12.5</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="2"/>
@@ -3705,17 +3546,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
         <v>21.428571428571431</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
@@ -3769,10 +3610,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="7"/>
@@ -3826,7 +3667,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>18</v>
@@ -3876,14 +3717,14 @@
         <v>50</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
@@ -3940,10 +3781,10 @@
         <v>30</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M16" s="27">
         <v>1.5</v>
@@ -3992,14 +3833,14 @@
         <v>50</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>16</v>
@@ -4056,7 +3897,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>14</v>
@@ -4106,17 +3947,17 @@
         <v>50</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="7"/>
@@ -4170,10 +4011,10 @@
         <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M20" s="38">
         <v>1.5</v>
@@ -4229,10 +4070,10 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="2"/>
@@ -4286,10 +4127,10 @@
         <v>93.75</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="2"/>
@@ -4321,10 +4162,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="23">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E23" s="23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F23" s="23">
         <v>11</v>
@@ -4336,17 +4177,17 @@
         <v>50</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J23" s="16">
         <f>(D23/E23) *2</f>
-        <v>108.33333333333334</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
@@ -4400,10 +4241,10 @@
         <v>110</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
@@ -4450,17 +4291,17 @@
         <v>50</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="7"/>
@@ -4492,10 +4333,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="23">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="E26" s="23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="23">
         <v>12</v>
@@ -4511,10 +4352,10 @@
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>216.66666666666669</v>
+        <v>222</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>17</v>
@@ -4564,17 +4405,17 @@
         <v>50</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J27" s="16">
         <f>D27/E27*2</f>
         <v>213.33333333333334</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="2"/>
@@ -4621,14 +4462,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J28" s="16">
         <f>D28/E28*4</f>
         <v>240</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>11</v>
@@ -4678,20 +4519,20 @@
         <v>50</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J29" s="16">
         <f>D29/E29 * 10</f>
         <v>125</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1"/>
@@ -4744,10 +4585,10 @@
         <v>214.28571428571431</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="2"/>
@@ -4801,10 +4642,10 @@
         <v>100</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="7"/>
@@ -4858,7 +4699,7 @@
         <v>500</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>19</v>
@@ -4908,17 +4749,17 @@
         <v>50</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
@@ -4972,10 +4813,10 @@
         <v>259</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="2"/>
@@ -5022,14 +4863,14 @@
         <v>50</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J35" s="16">
         <f>D35/E35 *3</f>
         <v>465</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>39</v>
@@ -5079,17 +4920,17 @@
         <v>50</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
@@ -5136,14 +4977,14 @@
         <v>100</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J37" s="35">
         <f>D37/E37 * 3</f>
         <v>499.5</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>40</v>
@@ -5193,17 +5034,17 @@
         <v>50</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L38" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="5"/>
@@ -5257,7 +5098,7 @@
         <v>1000</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L39" s="36" t="s">
         <v>22</v>
@@ -5307,14 +5148,14 @@
         <v>50</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>41</v>
@@ -5364,14 +5205,14 @@
         <v>50</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>21</v>
@@ -5421,14 +5262,14 @@
         <v>50</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L42" s="39" t="s">
         <v>20</v>
@@ -5485,10 +5326,10 @@
         <v>1036.6666666666667</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="7"/>
@@ -5535,14 +5376,14 @@
         <v>50</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>24</v>
@@ -5577,10 +5418,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="23">
-        <v>1199</v>
+        <v>3333</v>
       </c>
       <c r="E45" s="23">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F45" s="23">
         <v>10</v>
@@ -5592,14 +5433,14 @@
         <v>50</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>2398</v>
+        <v>2222</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>27</v>
@@ -5656,7 +5497,7 @@
         <v>2000</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>42</v>
@@ -5713,10 +5554,10 @@
         <v>798</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="2"/>
@@ -5763,14 +5604,14 @@
         <v>50</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" si="0"/>
         <v>2498.75</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L48" s="36" t="s">
         <v>23</v>
@@ -5820,17 +5661,17 @@
         <v>50</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
@@ -5884,10 +5725,10 @@
         <v>178.57142857142858</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="5"/>
@@ -5916,7 +5757,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D51" s="23">
         <v>44</v>
@@ -5941,10 +5782,10 @@
         <v>440</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L51" s="44" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="1"/>
@@ -5991,17 +5832,17 @@
         <v>50</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="1"/>
@@ -6048,17 +5889,17 @@
         <v>50</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -6111,10 +5952,10 @@
         <v>44</v>
       </c>
       <c r="K54" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -6167,10 +6008,10 @@
         <v>250</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6223,10 +6064,10 @@
         <v>50</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -6279,10 +6120,10 @@
         <v>1200</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -6335,10 +6176,10 @@
         <v>1712.8571428571429</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -6384,17 +6225,17 @@
         <v>50</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -6440,14 +6281,14 @@
         <v>50</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J60" s="23">
         <f>D60/E60 * 5</f>
         <v>500</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -6493,14 +6334,14 @@
         <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
         <v>88.666666666666671</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -6546,14 +6387,14 @@
         <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="J62" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -34615,28 +34456,28 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>254</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1">
@@ -34647,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="54">
         <v>1</v>
@@ -34672,7 +34513,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="54">
         <v>1.1000000000000001</v>
@@ -34697,7 +34538,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" s="54">
         <v>1.2</v>
@@ -34722,7 +34563,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="54">
         <v>1.3</v>
@@ -34747,7 +34588,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="54">
         <v>1.4</v>
@@ -34772,7 +34613,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="54">
         <v>1.5</v>
@@ -34811,16 +34652,16 @@
         <v>43</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>244</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -35031,13 +34872,13 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>247</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -35135,7 +34976,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H98" sqref="A2:H98"/>
     </sheetView>
   </sheetViews>
@@ -35149,25 +34990,25 @@
         <v>43</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>216</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -36496,7 +36337,7 @@
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -36759,7 +36600,7 @@
         <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -37022,7 +36863,7 @@
         <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -37155,7 +36996,7 @@
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -37288,7 +37129,7 @@
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -37551,7 +37392,7 @@
         <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -37723,7 +37564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D9"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -37731,8 +37572,9 @@
     <col min="4" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="49.375" customWidth="1"/>
+    <col min="8" max="8" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1">
@@ -37746,22 +37588,22 @@
         <v>45</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -37790,7 +37632,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
@@ -37804,26 +37646,24 @@
         <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -37836,25 +37676,22 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -37868,25 +37705,22 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37900,25 +37734,22 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>92</v>
       </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -37932,25 +37763,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>99</v>
       </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
       <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -37964,25 +37792,22 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>103</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>105</v>
       </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
       <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -37996,25 +37821,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
         <v>153</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>154</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>156</v>
       </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
       <c r="I9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -38028,25 +37850,22 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>112</v>
       </c>
-      <c r="H10" t="s">
-        <v>113</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -38060,25 +37879,22 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
         <v>114</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>115</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -38092,25 +37908,22 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
         <v>120</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
       <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -38124,25 +37937,22 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -38156,25 +37966,22 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>129</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>130</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>131</v>
       </c>
-      <c r="H14" t="s">
-        <v>132</v>
-      </c>
       <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -38188,25 +37995,22 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
         <v>134</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>136</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>137</v>
       </c>
-      <c r="H15" t="s">
-        <v>138</v>
-      </c>
       <c r="I15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -38220,25 +38024,22 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -38252,25 +38053,22 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>142</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>143</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>144</v>
       </c>
-      <c r="H17" t="s">
-        <v>145</v>
-      </c>
       <c r="I17" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
@@ -38284,25 +38082,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" t="s">
         <v>183</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="99">
@@ -38316,26 +38111,24 @@
         <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="I19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>200</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -38348,25 +38141,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
         <v>195</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>196</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>197</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>198</v>
       </c>
-      <c r="H20" t="s">
-        <v>199</v>
-      </c>
       <c r="I20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -38380,25 +38170,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" t="s">
         <v>163</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>165</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>166</v>
       </c>
-      <c r="H21" t="s">
-        <v>167</v>
-      </c>
       <c r="I21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -38412,25 +38199,22 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" t="s">
         <v>149</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
         <v>151</v>
       </c>
-      <c r="G22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
       <c r="I22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -38441,239 +38225,60 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD991E-76B1-488B-B603-BE3AD2200A10}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="120.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB2463-6E45-47D5-9235-9A29FF17C381}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -38689,27 +38294,27 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -38717,7 +38322,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -38733,41 +38338,41 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -38783,41 +38388,41 @@
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
       <c r="A4" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -38827,17 +38432,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y4" s="55" t="s">
-        <v>263</v>
-      </c>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1">
       <c r="A5" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -38853,7 +38452,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -38869,50 +38468,54 @@
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
       <c r="A6" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>261</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -38923,45 +38526,45 @@
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1">
       <c r="A7" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -38977,7 +38580,7 @@
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -38993,7 +38596,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -39003,51 +38606,47 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1">
       <c r="A9" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -39057,51 +38656,47 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -39117,7 +38712,7 @@
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -39125,13 +38720,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -39139,7 +38734,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -39155,49 +38750,49 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
